--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2253880.911924168</v>
+        <v>2251201.040370478</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13344334.1352714</v>
+        <v>13344334.13527141</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4315117.414351953</v>
+        <v>4315117.41435195</v>
       </c>
     </row>
     <row r="9">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.8483481727171</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>262.9537450355685</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>89.23287708050189</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>242.6625909260526</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>151.9825373289619</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>276.044291121951</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>304.6475945998296</v>
       </c>
       <c r="X11" t="n">
         <v>322.9166289347079</v>
       </c>
       <c r="Y11" t="n">
-        <v>329.8843519070391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,10 +1460,10 @@
         <v>72.44057589865537</v>
       </c>
       <c r="F12" t="n">
-        <v>60.54603797413373</v>
+        <v>60.54603797413353</v>
       </c>
       <c r="G12" t="n">
-        <v>55.40598803360108</v>
+        <v>55.40598803360109</v>
       </c>
       <c r="H12" t="n">
         <v>16.93289058638531</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>55.86143244639805</v>
+        <v>55.86143244639803</v>
       </c>
       <c r="T12" t="n">
         <v>109.300473946433</v>
       </c>
       <c r="U12" t="n">
-        <v>145.2676551201519</v>
+        <v>145.267655120152</v>
       </c>
       <c r="V12" t="n">
         <v>157.6731515310778</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.7144884228225</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>105.8616166731049</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>91.36177393782373</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>93.111225357591</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>85.23142542634389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>48.65542142971185</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.41960706093047</v>
+        <v>29.41960706093048</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>106.8801084805844</v>
       </c>
       <c r="T13" t="n">
         <v>167.8125192998791</v>
@@ -1587,10 +1587,10 @@
         <v>219.9058317342884</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>200.6781016458182</v>
       </c>
       <c r="W13" t="n">
-        <v>29.13332827528463</v>
+        <v>217.8556479665684</v>
       </c>
       <c r="X13" t="n">
         <v>169.0980689132809</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>326.6022964005329</v>
       </c>
       <c r="D14" t="n">
-        <v>44.62394635056346</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>335.9162395530551</v>
       </c>
       <c r="F14" t="n">
-        <v>339.7610794220312</v>
+        <v>339.7610794220313</v>
       </c>
       <c r="G14" t="n">
-        <v>339.7610794220312</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>242.6625909260525</v>
+        <v>242.6625909260526</v>
       </c>
       <c r="I14" t="n">
-        <v>15.81986134728493</v>
+        <v>5.969159891352471</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.63343082799469</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.63692101498592</v>
+        <v>87.63692101498594</v>
       </c>
       <c r="C15" t="n">
-        <v>86.50623805394289</v>
+        <v>86.50623805394292</v>
       </c>
       <c r="D15" t="n">
-        <v>66.14662762316865</v>
+        <v>66.14662762316868</v>
       </c>
       <c r="E15" t="n">
-        <v>72.44057589865534</v>
+        <v>72.44057589865537</v>
       </c>
       <c r="F15" t="n">
-        <v>60.54603797413371</v>
+        <v>60.54603797413374</v>
       </c>
       <c r="G15" t="n">
-        <v>55.40598803360106</v>
+        <v>55.40598803360109</v>
       </c>
       <c r="H15" t="n">
-        <v>16.93289058638528</v>
+        <v>16.93289058638531</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>55.861432446398</v>
+        <v>55.86143244639782</v>
       </c>
       <c r="T15" t="n">
         <v>109.300473946433</v>
       </c>
       <c r="U15" t="n">
-        <v>145.267655120152</v>
+        <v>145.2676551201524</v>
       </c>
       <c r="V15" t="n">
         <v>157.6731515310778</v>
@@ -1751,10 +1751,10 @@
         <v>165.1746233264802</v>
       </c>
       <c r="X15" t="n">
-        <v>124.7725567919226</v>
+        <v>124.7725567919227</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.879624673682</v>
+        <v>114.8796246736821</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>120.7144884228225</v>
       </c>
       <c r="C16" t="n">
         <v>105.8616166731049</v>
       </c>
       <c r="D16" t="n">
-        <v>91.43533188494459</v>
+        <v>79.54143616466827</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>93.11122535759097</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>103.2494928278121</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>85.23142542634389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>48.65542142971185</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>29.41960706093048</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.2080584409339</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>219.9058317342884</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>200.6781016458182</v>
       </c>
       <c r="W16" t="n">
-        <v>217.8556479665683</v>
+        <v>217.8556479665684</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>169.0980689132809</v>
       </c>
       <c r="Y16" t="n">
         <v>158.2394904899573</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>153.0100105812137</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>320.6644369428258</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>315.4528557359912</v>
       </c>
       <c r="H17" t="n">
-        <v>213.2429838651221</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>38.21382376706421</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>122.5629302680314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>161.01276792098</v>
       </c>
       <c r="V17" t="n">
         <v>246.6246840610205</v>
@@ -1909,10 +1909,10 @@
         <v>275.2279875388991</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>293.4970218737775</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>71.63088755930825</v>
       </c>
     </row>
     <row r="18">
@@ -1931,16 +1931,16 @@
         <v>36.72702056223821</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>43.02096883772489</v>
       </c>
       <c r="F18" t="n">
         <v>31.12643091320327</v>
       </c>
       <c r="G18" t="n">
-        <v>25.98638097267062</v>
+        <v>78.68598220022822</v>
       </c>
       <c r="H18" t="n">
-        <v>52.69960122755776</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>26.44182538546755</v>
+        <v>118.5028825279638</v>
       </c>
       <c r="T18" t="n">
         <v>171.9419240279988</v>
@@ -1985,10 +1985,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>135.7550162655498</v>
       </c>
       <c r="X18" t="n">
-        <v>95.35294973099221</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -2016,13 +2016,13 @@
         <v>63.69161829666052</v>
       </c>
       <c r="G19" t="n">
-        <v>73.82988576688166</v>
+        <v>59.08634274714297</v>
       </c>
       <c r="H19" t="n">
         <v>55.81181836541342</v>
       </c>
       <c r="I19" t="n">
-        <v>19.23581436878137</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>188.4360409056379</v>
       </c>
       <c r="X19" t="n">
-        <v>105.6991044638303</v>
+        <v>139.6784618523505</v>
       </c>
       <c r="Y19" t="n">
         <v>128.8198834290268</v>
@@ -2089,7 +2089,7 @@
         <v>289.5256603530026</v>
       </c>
       <c r="E20" t="n">
-        <v>39.12410120079468</v>
+        <v>0.9102774337303701</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>38.21382376706421</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58.21731395405547</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>36.72702056223821</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>43.02096883772489</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>31.12643091320327</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>25.98638097267062</v>
+        <v>78.68598220022824</v>
       </c>
       <c r="H21" t="n">
-        <v>52.69960122755759</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>118.5028825279638</v>
+        <v>26.44182538546755</v>
       </c>
       <c r="T21" t="n">
-        <v>171.9419240279988</v>
+        <v>79.88086688550251</v>
       </c>
       <c r="U21" t="n">
         <v>115.8480480592216</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>128.2535444701474</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>135.7550162655498</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>95.35294973099221</v>
       </c>
       <c r="Y21" t="n">
-        <v>85.46001761275159</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>63.69161829666052</v>
       </c>
       <c r="G22" t="n">
-        <v>73.82988576688166</v>
+        <v>39.85052837836159</v>
       </c>
       <c r="H22" t="n">
         <v>55.81181836541342</v>
@@ -2292,7 +2292,7 @@
         <v>96.86637895667248</v>
       </c>
       <c r="T22" t="n">
-        <v>104.4135548504285</v>
+        <v>138.3929122389486</v>
       </c>
       <c r="U22" t="n">
         <v>190.4862246733579</v>
@@ -2332,7 +2332,7 @@
         <v>320.6644369428258</v>
       </c>
       <c r="G23" t="n">
-        <v>315.4528557359912</v>
+        <v>86.21070809357441</v>
       </c>
       <c r="H23" t="n">
         <v>213.2429838651221</v>
@@ -2386,7 +2386,7 @@
         <v>293.4970218737775</v>
       </c>
       <c r="Y23" t="n">
-        <v>71.22259720369186</v>
+        <v>300.4647448461086</v>
       </c>
     </row>
     <row r="24">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>333.2806663598641</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>326.0346145876798</v>
@@ -2563,13 +2563,13 @@
         <v>318.3775856010801</v>
       </c>
       <c r="E26" t="n">
-        <v>335.3485577402021</v>
+        <v>335.348557740202</v>
       </c>
       <c r="F26" t="n">
         <v>349.5163621909031</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>344.3047809840685</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>67.06574901514159</v>
       </c>
       <c r="T26" t="n">
-        <v>10.69842559203779</v>
+        <v>151.4148555161088</v>
       </c>
       <c r="U26" t="n">
-        <v>189.8646931690574</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>275.476609309098</v>
+        <v>246.5350089147379</v>
       </c>
       <c r="W26" t="n">
-        <v>304.0799127869766</v>
+        <v>304.0799127869765</v>
       </c>
       <c r="X26" t="n">
         <v>322.3489471218548</v>
       </c>
       <c r="Y26" t="n">
-        <v>329.3166700941861</v>
+        <v>329.316670094186</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>105.2939348602518</v>
       </c>
       <c r="D28" t="n">
-        <v>90.86765007209155</v>
+        <v>90.86765007209154</v>
       </c>
       <c r="E28" t="n">
-        <v>90.79409212497066</v>
+        <v>90.79409212497065</v>
       </c>
       <c r="F28" t="n">
-        <v>92.54354354473793</v>
+        <v>92.54354354473791</v>
       </c>
       <c r="G28" t="n">
         <v>102.6818110149591</v>
       </c>
       <c r="H28" t="n">
-        <v>84.66374361349082</v>
+        <v>84.66374361349081</v>
       </c>
       <c r="I28" t="n">
-        <v>48.08773961685878</v>
+        <v>48.08773961685876</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.8519252480772</v>
+        <v>28.8519252480774</v>
       </c>
       <c r="S28" t="n">
-        <v>125.7183042047499</v>
+        <v>125.71830420475</v>
       </c>
       <c r="T28" t="n">
         <v>167.244837487026</v>
       </c>
       <c r="U28" t="n">
-        <v>219.3381499214358</v>
+        <v>219.338149921436</v>
       </c>
       <c r="V28" t="n">
-        <v>200.1104198329652</v>
+        <v>200.1104198329651</v>
       </c>
       <c r="W28" t="n">
         <v>217.2879661537153</v>
       </c>
       <c r="X28" t="n">
-        <v>168.5303871004279</v>
+        <v>168.5303871004278</v>
       </c>
       <c r="Y28" t="n">
         <v>157.6718086771042</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>333.2806663598641</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>326.0346145876799</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>318.3775856010801</v>
@@ -2809,7 +2809,7 @@
         <v>344.3047809840686</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>242.0949091131995</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>67.06574901514165</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>151.4148555161089</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>189.8646931690574</v>
       </c>
       <c r="V29" t="n">
-        <v>131.7349470861241</v>
+        <v>275.476609309098</v>
       </c>
       <c r="W29" t="n">
         <v>304.0799127869766</v>
@@ -2860,7 +2860,7 @@
         <v>322.3489471218549</v>
       </c>
       <c r="Y29" t="n">
-        <v>329.3166700941861</v>
+        <v>194.4500820052485</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>79.57434066795109</v>
       </c>
       <c r="I30" t="n">
-        <v>20.94388221818309</v>
+        <v>20.9438822181831</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>84.66374361349085</v>
       </c>
       <c r="I31" t="n">
-        <v>48.0877396168588</v>
+        <v>48.08773961685881</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.85192524807743</v>
+        <v>28.85192524807745</v>
       </c>
       <c r="S31" t="n">
         <v>125.7183042047499</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>318.0284868254322</v>
+        <v>318.0284868254321</v>
       </c>
       <c r="C32" t="n">
-        <v>310.782435053248</v>
+        <v>310.7824350532479</v>
       </c>
       <c r="D32" t="n">
         <v>303.1254060666482</v>
       </c>
       <c r="E32" t="n">
-        <v>320.0963782057702</v>
+        <v>73.70920530780766</v>
       </c>
       <c r="F32" t="n">
-        <v>334.2641826564713</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>329.0526014496367</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>42.16183331724413</v>
+        <v>51.81356948070971</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>136.162675981677</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>174.6125136346255</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>260.224429774666</v>
       </c>
       <c r="W32" t="n">
-        <v>288.8277332525447</v>
+        <v>288.8277332525446</v>
       </c>
       <c r="X32" t="n">
         <v>307.096767587423</v>
       </c>
       <c r="Y32" t="n">
-        <v>314.0644905597542</v>
+        <v>314.0644905597541</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>104.8946270755375</v>
       </c>
       <c r="C34" t="n">
-        <v>90.04175532581995</v>
+        <v>90.04175532581992</v>
       </c>
       <c r="D34" t="n">
-        <v>75.61547053765968</v>
+        <v>75.61547053765965</v>
       </c>
       <c r="E34" t="n">
-        <v>75.54191259053879</v>
+        <v>75.54191259053876</v>
       </c>
       <c r="F34" t="n">
-        <v>77.29136401030605</v>
+        <v>77.29136401030603</v>
       </c>
       <c r="G34" t="n">
-        <v>87.42963148052719</v>
+        <v>87.42963148052716</v>
       </c>
       <c r="H34" t="n">
-        <v>69.41156407905895</v>
+        <v>69.41156407905892</v>
       </c>
       <c r="I34" t="n">
-        <v>32.83556008242691</v>
+        <v>32.83556008242688</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.59974571364554</v>
+        <v>13.59974571364551</v>
       </c>
       <c r="S34" t="n">
         <v>110.466124670318</v>
@@ -3243,10 +3243,10 @@
         <v>151.9926579525941</v>
       </c>
       <c r="U34" t="n">
-        <v>204.0859703870035</v>
+        <v>204.0859703870034</v>
       </c>
       <c r="V34" t="n">
-        <v>184.8582402985333</v>
+        <v>184.8582402985332</v>
       </c>
       <c r="W34" t="n">
         <v>202.0357866192834</v>
@@ -3255,7 +3255,7 @@
         <v>153.278207565996</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.4196291426724</v>
+        <v>142.4196291426723</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>310.782435053248</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>303.1254060666482</v>
+        <v>16.15333768175301</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>329.0526014496367</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>226.8427295787676</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.81356948070974</v>
+        <v>51.81356948070971</v>
       </c>
       <c r="T35" t="n">
-        <v>32.12280151263314</v>
+        <v>136.162675981677</v>
       </c>
       <c r="U35" t="n">
         <v>174.6125136346255</v>
       </c>
       <c r="V35" t="n">
-        <v>260.2244297746661</v>
+        <v>260.224429774666</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>288.8277332525446</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>307.096767587423</v>
       </c>
       <c r="Y35" t="n">
-        <v>314.0644905597542</v>
+        <v>314.0644905597541</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>71.81705966770097</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
@@ -3356,16 +3356,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>44.7261766268488</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>39.58612668631615</v>
+        <v>118.0474381151669</v>
       </c>
       <c r="H36" t="n">
-        <v>1.113029239100369</v>
+        <v>1.11302923910034</v>
       </c>
       <c r="I36" t="n">
-        <v>20.94388221818309</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>70.13870682301638</v>
+        <v>40.04157109911306</v>
       </c>
       <c r="T36" t="n">
-        <v>171.9419240279988</v>
+        <v>144.5216305412336</v>
       </c>
       <c r="U36" t="n">
-        <v>129.4477937728671</v>
+        <v>129.447793772867</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3426,25 +3426,25 @@
         <v>104.8946270755375</v>
       </c>
       <c r="C37" t="n">
-        <v>90.04175532581995</v>
+        <v>90.04175532581992</v>
       </c>
       <c r="D37" t="n">
-        <v>75.61547053765968</v>
+        <v>75.61547053765965</v>
       </c>
       <c r="E37" t="n">
-        <v>75.54191259053879</v>
+        <v>75.54191259053876</v>
       </c>
       <c r="F37" t="n">
-        <v>77.29136401030605</v>
+        <v>77.29136401030603</v>
       </c>
       <c r="G37" t="n">
-        <v>87.42963148052719</v>
+        <v>87.42963148052716</v>
       </c>
       <c r="H37" t="n">
-        <v>69.41156407905895</v>
+        <v>69.41156407905892</v>
       </c>
       <c r="I37" t="n">
-        <v>32.83556008242691</v>
+        <v>32.83556008242688</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>13.59974571364554</v>
+        <v>13.59974571364551</v>
       </c>
       <c r="S37" t="n">
         <v>110.466124670318</v>
@@ -3483,7 +3483,7 @@
         <v>204.0859703870036</v>
       </c>
       <c r="V37" t="n">
-        <v>184.8582402985333</v>
+        <v>184.8582402985332</v>
       </c>
       <c r="W37" t="n">
         <v>202.0357866192834</v>
@@ -3492,7 +3492,7 @@
         <v>153.278207565996</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.4196291426724</v>
+        <v>142.4196291426723</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>16.15333768175301</v>
       </c>
       <c r="C38" t="n">
-        <v>310.782435053248</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>303.1254060666482</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.81356948070974</v>
+        <v>51.81356948070971</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>136.162675981677</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>174.6125136346255</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>260.224429774666</v>
       </c>
       <c r="W38" t="n">
-        <v>262.0728492053704</v>
+        <v>288.8277332525446</v>
       </c>
       <c r="X38" t="n">
         <v>307.096767587423</v>
       </c>
       <c r="Y38" t="n">
-        <v>314.0644905597542</v>
+        <v>314.0644905597541</v>
       </c>
     </row>
     <row r="39">
@@ -3587,10 +3587,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>50.32676627588371</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>56.6207145513704</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
@@ -3599,10 +3599,10 @@
         <v>118.0474381151669</v>
       </c>
       <c r="H39" t="n">
-        <v>1.113029239100369</v>
+        <v>1.11302923910034</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.94388221818309</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>40.04157109911309</v>
+        <v>40.04157109911306</v>
       </c>
       <c r="T39" t="n">
-        <v>93.48061259914805</v>
+        <v>93.48061259914802</v>
       </c>
       <c r="U39" t="n">
-        <v>180.488811714953</v>
+        <v>159.5449294967696</v>
       </c>
       <c r="V39" t="n">
-        <v>141.8532901837929</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
@@ -3650,7 +3650,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>99.05976332639712</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -3663,25 +3663,25 @@
         <v>104.8946270755375</v>
       </c>
       <c r="C40" t="n">
-        <v>90.04175532581995</v>
+        <v>90.04175532581992</v>
       </c>
       <c r="D40" t="n">
-        <v>75.61547053765968</v>
+        <v>75.61547053765965</v>
       </c>
       <c r="E40" t="n">
-        <v>75.54191259053879</v>
+        <v>75.54191259053876</v>
       </c>
       <c r="F40" t="n">
-        <v>77.29136401030605</v>
+        <v>77.29136401030603</v>
       </c>
       <c r="G40" t="n">
-        <v>87.42963148052719</v>
+        <v>87.42963148052716</v>
       </c>
       <c r="H40" t="n">
-        <v>69.41156407905895</v>
+        <v>69.41156407905892</v>
       </c>
       <c r="I40" t="n">
-        <v>32.83556008242691</v>
+        <v>32.83556008242688</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.59974571364554</v>
+        <v>13.59974571364551</v>
       </c>
       <c r="S40" t="n">
-        <v>110.4661246703179</v>
+        <v>110.466124670318</v>
       </c>
       <c r="T40" t="n">
         <v>151.9926579525941</v>
       </c>
       <c r="U40" t="n">
-        <v>204.0859703870038</v>
+        <v>204.0859703870034</v>
       </c>
       <c r="V40" t="n">
-        <v>184.8582402985333</v>
+        <v>184.8582402985332</v>
       </c>
       <c r="W40" t="n">
         <v>202.0357866192834</v>
@@ -3729,7 +3729,7 @@
         <v>153.278207565996</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.4196291426724</v>
+        <v>142.4196291426723</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.8180116589206</v>
+        <v>351.8180116589205</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>353.8859030392585</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>368.0537074899596</v>
       </c>
       <c r="G41" t="n">
-        <v>362.8421262831251</v>
+        <v>148.5084482464852</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>33.7895248334884</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>85.60309431419813</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>119.4361160439475</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>294.0139546081544</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>322.6172580860331</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>347.8540153932425</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>105.6065845011894</v>
+        <v>105.6065845011893</v>
       </c>
       <c r="C42" t="n">
-        <v>104.4759015401464</v>
+        <v>104.4759015401463</v>
       </c>
       <c r="D42" t="n">
-        <v>84.11629110937213</v>
+        <v>84.11629110937209</v>
       </c>
       <c r="E42" t="n">
-        <v>90.41023938485881</v>
+        <v>90.41023938485877</v>
       </c>
       <c r="F42" t="n">
-        <v>78.51570146033717</v>
+        <v>78.51570146033714</v>
       </c>
       <c r="G42" t="n">
-        <v>73.37565151980453</v>
+        <v>73.37565151980449</v>
       </c>
       <c r="H42" t="n">
-        <v>34.90255407258875</v>
+        <v>34.90255407258871</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>73.83109593260146</v>
+        <v>73.83109593260143</v>
       </c>
       <c r="T42" t="n">
         <v>127.2701374326364</v>
       </c>
       <c r="U42" t="n">
-        <v>163.2373186063555</v>
+        <v>163.2373186063549</v>
       </c>
       <c r="V42" t="n">
-        <v>175.6428150172813</v>
+        <v>175.6428150172812</v>
       </c>
       <c r="W42" t="n">
-        <v>183.1442868126837</v>
+        <v>183.1442868126836</v>
       </c>
       <c r="X42" t="n">
         <v>142.7422202781261</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.6841519090259</v>
+        <v>70.44243989399823</v>
       </c>
       <c r="C43" t="n">
-        <v>123.8312801593083</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>111.0808888437944</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>121.2191563140156</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>103.2010889125473</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>66.62508491591529</v>
+        <v>66.62508491591525</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.38927054713393</v>
+        <v>47.38927054713388</v>
       </c>
       <c r="S43" t="n">
-        <v>40.33920126568788</v>
+        <v>144.2556495038064</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>185.7821827860825</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>237.8754952204918</v>
       </c>
       <c r="V43" t="n">
-        <v>218.6477651320217</v>
+        <v>218.6477651320216</v>
       </c>
       <c r="W43" t="n">
         <v>235.8253114527718</v>
       </c>
       <c r="X43" t="n">
-        <v>187.0677323994844</v>
+        <v>187.0677323994843</v>
       </c>
       <c r="Y43" t="n">
         <v>176.2091539761607</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>236.7696656371386</v>
+        <v>336.9149309001365</v>
       </c>
       <c r="E44" t="n">
-        <v>353.8859030392586</v>
+        <v>300.2047066240405</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>362.8421262831251</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>260.6322544122559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>85.60309431419813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>169.9522008151653</v>
       </c>
       <c r="U44" t="n">
-        <v>208.4020384681139</v>
+        <v>208.4020384681138</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>294.0139546081543</v>
       </c>
       <c r="W44" t="n">
-        <v>322.6172580860331</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>105.6065845011894</v>
+        <v>105.6065845011893</v>
       </c>
       <c r="C45" t="n">
-        <v>104.4759015401464</v>
+        <v>104.4759015401463</v>
       </c>
       <c r="D45" t="n">
-        <v>84.11629110937213</v>
+        <v>84.11629110937203</v>
       </c>
       <c r="E45" t="n">
-        <v>90.41023938485881</v>
+        <v>90.41023938485871</v>
       </c>
       <c r="F45" t="n">
-        <v>78.51570146033717</v>
+        <v>78.51570146033708</v>
       </c>
       <c r="G45" t="n">
-        <v>73.37565151980453</v>
+        <v>73.37565151980444</v>
       </c>
       <c r="H45" t="n">
-        <v>34.90255407258875</v>
+        <v>34.90255407258866</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>73.83109593260147</v>
+        <v>73.83109593260137</v>
       </c>
       <c r="T45" t="n">
         <v>127.2701374326362</v>
       </c>
       <c r="U45" t="n">
-        <v>163.2373186063558</v>
+        <v>163.237318606356</v>
       </c>
       <c r="V45" t="n">
-        <v>175.6428150172813</v>
+        <v>175.6428150172812</v>
       </c>
       <c r="W45" t="n">
-        <v>183.1442868126837</v>
+        <v>183.1442868126836</v>
       </c>
       <c r="X45" t="n">
-        <v>142.7422202781261</v>
+        <v>142.742220278126</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.8492881598855</v>
+        <v>132.8492881598854</v>
       </c>
     </row>
     <row r="46">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.6841519090259</v>
+        <v>138.6841519090258</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.8312801593082</v>
       </c>
       <c r="D46" t="n">
-        <v>109.4049953711481</v>
+        <v>109.404995371148</v>
       </c>
       <c r="E46" t="n">
-        <v>109.3314374240272</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>111.0808888437944</v>
+        <v>111.0808888437943</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>121.2191563140155</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>103.2010889125472</v>
       </c>
       <c r="I46" t="n">
-        <v>66.62508491591529</v>
+        <v>66.6250849159152</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.38927054713393</v>
+        <v>47.38927054713383</v>
       </c>
       <c r="S46" t="n">
-        <v>144.2556495038064</v>
+        <v>144.2556495038063</v>
       </c>
       <c r="T46" t="n">
-        <v>185.7821827860825</v>
+        <v>185.7821827860824</v>
       </c>
       <c r="U46" t="n">
-        <v>234.6733806746772</v>
+        <v>55.36945018944488</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>235.8253114527718</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>187.0677323994844</v>
+        <v>187.0677323994843</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>176.2091539761606</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.4288338351307</v>
+        <v>292.7907298240338</v>
       </c>
       <c r="C11" t="n">
-        <v>362.4288338351307</v>
+        <v>292.7907298240338</v>
       </c>
       <c r="D11" t="n">
-        <v>362.4288338351307</v>
+        <v>27.1808863537625</v>
       </c>
       <c r="E11" t="n">
-        <v>362.4288338351307</v>
+        <v>27.1808863537625</v>
       </c>
       <c r="F11" t="n">
-        <v>362.4288338351307</v>
+        <v>27.1808863537625</v>
       </c>
       <c r="G11" t="n">
-        <v>272.2946145618964</v>
+        <v>27.1808863537625</v>
       </c>
       <c r="H11" t="n">
         <v>27.1808863537625</v>
@@ -5044,22 +5044,22 @@
         <v>299.3146751894522</v>
       </c>
       <c r="K11" t="n">
-        <v>348.7523490944117</v>
+        <v>472.1369320464407</v>
       </c>
       <c r="L11" t="n">
-        <v>434.0703003593378</v>
+        <v>557.4548833113669</v>
       </c>
       <c r="M11" t="n">
-        <v>549.5880944895059</v>
+        <v>672.972677441535</v>
       </c>
       <c r="N11" t="n">
-        <v>669.974062745077</v>
+        <v>793.3586456971061</v>
       </c>
       <c r="O11" t="n">
-        <v>774.9831990138213</v>
+        <v>898.3677819658503</v>
       </c>
       <c r="P11" t="n">
-        <v>965.5649997406719</v>
+        <v>965.564999740672</v>
       </c>
       <c r="Q11" t="n">
         <v>1301.928468368483</v>
@@ -5071,22 +5071,22 @@
         <v>1359.044317688125</v>
       </c>
       <c r="T11" t="n">
-        <v>1359.044317688125</v>
+        <v>1205.526603214426</v>
       </c>
       <c r="U11" t="n">
-        <v>1359.044317688125</v>
+        <v>1205.526603214426</v>
       </c>
       <c r="V11" t="n">
-        <v>1359.044317688125</v>
+        <v>926.6939859195263</v>
       </c>
       <c r="W11" t="n">
-        <v>1359.044317688125</v>
+        <v>618.9691428893954</v>
       </c>
       <c r="X11" t="n">
-        <v>1032.865904622763</v>
+        <v>292.7907298240338</v>
       </c>
       <c r="Y11" t="n">
-        <v>699.649387544946</v>
+        <v>292.7907298240338</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>388.7751875354667</v>
+        <v>388.7751875354665</v>
       </c>
       <c r="C12" t="n">
-        <v>301.3951490971405</v>
+        <v>301.3951490971403</v>
       </c>
       <c r="D12" t="n">
-        <v>234.5803737202024</v>
+        <v>234.5803737202022</v>
       </c>
       <c r="E12" t="n">
-        <v>161.4080748326717</v>
+        <v>161.4080748326715</v>
       </c>
       <c r="F12" t="n">
         <v>100.2504607173851</v>
       </c>
       <c r="G12" t="n">
-        <v>44.28481623900018</v>
+        <v>44.28481623900019</v>
       </c>
       <c r="H12" t="n">
         <v>27.1808863537625</v>
@@ -5138,7 +5138,7 @@
         <v>928.9722799729343</v>
       </c>
       <c r="P12" t="n">
-        <v>996.224289502709</v>
+        <v>996.2242895027091</v>
       </c>
       <c r="Q12" t="n">
         <v>1332.58775813052</v>
@@ -5162,10 +5162,10 @@
         <v>719.3702405461643</v>
       </c>
       <c r="X12" t="n">
-        <v>593.3373548977576</v>
+        <v>593.3373548977575</v>
       </c>
       <c r="Y12" t="n">
-        <v>477.2973299748464</v>
+        <v>477.2973299748463</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>455.6874144593942</v>
+        <v>76.32777668680478</v>
       </c>
       <c r="C13" t="n">
-        <v>348.756488526965</v>
+        <v>76.32777668680478</v>
       </c>
       <c r="D13" t="n">
-        <v>348.756488526965</v>
+        <v>76.32777668680478</v>
       </c>
       <c r="E13" t="n">
-        <v>256.4718683877491</v>
+        <v>76.32777668680478</v>
       </c>
       <c r="F13" t="n">
-        <v>162.4201256023037</v>
+        <v>76.32777668680478</v>
       </c>
       <c r="G13" t="n">
-        <v>162.4201256023037</v>
+        <v>76.32777668680478</v>
       </c>
       <c r="H13" t="n">
         <v>76.32777668680478</v>
@@ -5205,19 +5205,19 @@
         <v>205.1565659337807</v>
       </c>
       <c r="L13" t="n">
-        <v>321.5397357724131</v>
+        <v>469.4546483808217</v>
       </c>
       <c r="M13" t="n">
-        <v>613.4470008717385</v>
+        <v>761.3619134801472</v>
       </c>
       <c r="N13" t="n">
-        <v>899.7410166954983</v>
+        <v>1047.655929303907</v>
       </c>
       <c r="O13" t="n">
-        <v>1157.679368250399</v>
+        <v>1097.838561965825</v>
       </c>
       <c r="P13" t="n">
-        <v>1359.044317688125</v>
+        <v>1299.20351140355</v>
       </c>
       <c r="Q13" t="n">
         <v>1359.044317688125</v>
@@ -5226,25 +5226,25 @@
         <v>1329.327542879104</v>
       </c>
       <c r="S13" t="n">
-        <v>1329.327542879104</v>
+        <v>1221.367837343161</v>
       </c>
       <c r="T13" t="n">
-        <v>1159.819947626701</v>
+        <v>1051.860242090758</v>
       </c>
       <c r="U13" t="n">
-        <v>937.6928448647936</v>
+        <v>829.73313932885</v>
       </c>
       <c r="V13" t="n">
-        <v>937.6928448647936</v>
+        <v>627.0279861512558</v>
       </c>
       <c r="W13" t="n">
-        <v>908.2652405463243</v>
+        <v>406.9717760840151</v>
       </c>
       <c r="X13" t="n">
-        <v>737.459110330889</v>
+        <v>236.1656458685798</v>
       </c>
       <c r="Y13" t="n">
-        <v>577.6212411491139</v>
+        <v>76.32777668680478</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1359.044317688125</v>
+        <v>1290.727720892171</v>
       </c>
       <c r="C14" t="n">
-        <v>1359.044317688125</v>
+        <v>960.8264113966832</v>
       </c>
       <c r="D14" t="n">
-        <v>1313.969624404727</v>
+        <v>960.8264113966832</v>
       </c>
       <c r="E14" t="n">
-        <v>974.6602915228533</v>
+        <v>621.5170785148093</v>
       </c>
       <c r="F14" t="n">
-        <v>631.4672820056501</v>
+        <v>278.324068997606</v>
       </c>
       <c r="G14" t="n">
-        <v>288.2742724884468</v>
+        <v>278.324068997606</v>
       </c>
       <c r="H14" t="n">
-        <v>43.16054428031293</v>
+        <v>33.21034078947207</v>
       </c>
       <c r="I14" t="n">
         <v>27.1808863537625</v>
@@ -5281,22 +5281,22 @@
         <v>299.3146751894522</v>
       </c>
       <c r="K14" t="n">
-        <v>348.7523490944117</v>
+        <v>625.6205487319952</v>
       </c>
       <c r="L14" t="n">
-        <v>434.0703003593378</v>
+        <v>710.9384999969213</v>
       </c>
       <c r="M14" t="n">
-        <v>549.5880944895059</v>
+        <v>1047.301968624732</v>
       </c>
       <c r="N14" t="n">
-        <v>669.974062745077</v>
+        <v>1167.687936880304</v>
       </c>
       <c r="O14" t="n">
-        <v>774.9831990138213</v>
+        <v>1272.697073149048</v>
       </c>
       <c r="P14" t="n">
-        <v>1022.680849060314</v>
+        <v>1339.894290923869</v>
       </c>
       <c r="Q14" t="n">
         <v>1359.044317688125</v>
@@ -5305,25 +5305,25 @@
         <v>1359.044317688125</v>
       </c>
       <c r="S14" t="n">
-        <v>1359.044317688125</v>
+        <v>1290.727720892171</v>
       </c>
       <c r="T14" t="n">
-        <v>1359.044317688125</v>
+        <v>1290.727720892171</v>
       </c>
       <c r="U14" t="n">
-        <v>1359.044317688125</v>
+        <v>1290.727720892171</v>
       </c>
       <c r="V14" t="n">
-        <v>1359.044317688125</v>
+        <v>1290.727720892171</v>
       </c>
       <c r="W14" t="n">
-        <v>1359.044317688125</v>
+        <v>1290.727720892171</v>
       </c>
       <c r="X14" t="n">
-        <v>1359.044317688125</v>
+        <v>1290.727720892171</v>
       </c>
       <c r="Y14" t="n">
-        <v>1359.044317688125</v>
+        <v>1290.727720892171</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>388.7751875354665</v>
+        <v>388.7751875354667</v>
       </c>
       <c r="C15" t="n">
-        <v>301.3951490971403</v>
+        <v>301.3951490971405</v>
       </c>
       <c r="D15" t="n">
-        <v>234.5803737202023</v>
+        <v>234.5803737202024</v>
       </c>
       <c r="E15" t="n">
-        <v>161.4080748326716</v>
+        <v>161.4080748326717</v>
       </c>
       <c r="F15" t="n">
         <v>100.2504607173851</v>
       </c>
       <c r="G15" t="n">
-        <v>44.28481623900016</v>
+        <v>44.28481623900019</v>
       </c>
       <c r="H15" t="n">
         <v>27.1808863537625</v>
@@ -5360,22 +5360,22 @@
         <v>216.2244751065875</v>
       </c>
       <c r="K15" t="n">
-        <v>270.6032818873215</v>
+        <v>507.5153675878938</v>
       </c>
       <c r="L15" t="n">
-        <v>355.9408072618432</v>
+        <v>592.8528929624156</v>
       </c>
       <c r="M15" t="n">
-        <v>468.1076385748494</v>
+        <v>705.0197242754217</v>
       </c>
       <c r="N15" t="n">
-        <v>592.6088113451233</v>
+        <v>829.5208970456956</v>
       </c>
       <c r="O15" t="n">
-        <v>928.9722799729341</v>
+        <v>928.9722799729343</v>
       </c>
       <c r="P15" t="n">
-        <v>996.2242895027089</v>
+        <v>996.2242895027091</v>
       </c>
       <c r="Q15" t="n">
         <v>1332.58775813052</v>
@@ -5393,16 +5393,16 @@
         <v>1045.479104038647</v>
       </c>
       <c r="V15" t="n">
-        <v>886.2132944112956</v>
+        <v>886.2132944112959</v>
       </c>
       <c r="W15" t="n">
-        <v>719.370240546164</v>
+        <v>719.3702405461644</v>
       </c>
       <c r="X15" t="n">
-        <v>593.3373548977573</v>
+        <v>593.3373548977577</v>
       </c>
       <c r="Y15" t="n">
-        <v>477.2973299748462</v>
+        <v>477.2973299748465</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>424.8148931653307</v>
+        <v>453.9883535473393</v>
       </c>
       <c r="C16" t="n">
-        <v>317.8839672329016</v>
+        <v>347.0574276149101</v>
       </c>
       <c r="D16" t="n">
-        <v>225.525046136998</v>
+        <v>266.7125426000937</v>
       </c>
       <c r="E16" t="n">
-        <v>225.525046136998</v>
+        <v>266.7125426000937</v>
       </c>
       <c r="F16" t="n">
-        <v>131.4733033515525</v>
+        <v>266.7125426000937</v>
       </c>
       <c r="G16" t="n">
-        <v>27.1808863537625</v>
+        <v>162.4201256023037</v>
       </c>
       <c r="H16" t="n">
-        <v>27.1808863537625</v>
+        <v>76.32777668680478</v>
       </c>
       <c r="I16" t="n">
         <v>27.1808863537625</v>
@@ -5442,46 +5442,46 @@
         <v>187.2951408724131</v>
       </c>
       <c r="L16" t="n">
-        <v>451.5932233194542</v>
+        <v>321.5397357724133</v>
       </c>
       <c r="M16" t="n">
-        <v>553.6061945871634</v>
+        <v>613.4470008717387</v>
       </c>
       <c r="N16" t="n">
-        <v>839.9002104109231</v>
+        <v>899.7410166954985</v>
       </c>
       <c r="O16" t="n">
-        <v>1097.838561965824</v>
+        <v>1157.679368250399</v>
       </c>
       <c r="P16" t="n">
-        <v>1299.20351140355</v>
+        <v>1359.044317688125</v>
       </c>
       <c r="Q16" t="n">
         <v>1359.044317688125</v>
       </c>
       <c r="R16" t="n">
-        <v>1359.044317688125</v>
+        <v>1329.327542879104</v>
       </c>
       <c r="S16" t="n">
-        <v>1359.044317688125</v>
+        <v>1329.327542879104</v>
       </c>
       <c r="T16" t="n">
-        <v>1229.541228353848</v>
+        <v>1329.327542879104</v>
       </c>
       <c r="U16" t="n">
-        <v>1007.414125591941</v>
+        <v>1329.327542879104</v>
       </c>
       <c r="V16" t="n">
-        <v>804.7089724143465</v>
+        <v>1126.62238970151</v>
       </c>
       <c r="W16" t="n">
-        <v>584.6527623471057</v>
+        <v>906.5661796342695</v>
       </c>
       <c r="X16" t="n">
-        <v>584.6527623471057</v>
+        <v>735.7600494188341</v>
       </c>
       <c r="Y16" t="n">
-        <v>424.8148931653307</v>
+        <v>575.922180237059</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1043.916038504588</v>
+        <v>350.0600472024045</v>
       </c>
       <c r="C17" t="n">
-        <v>1043.916038504588</v>
+        <v>350.0600472024045</v>
       </c>
       <c r="D17" t="n">
-        <v>1043.916038504588</v>
+        <v>350.0600472024045</v>
       </c>
       <c r="E17" t="n">
-        <v>889.3604722609377</v>
+        <v>350.0600472024045</v>
       </c>
       <c r="F17" t="n">
-        <v>565.4570006015177</v>
+        <v>350.0600472024045</v>
       </c>
       <c r="G17" t="n">
-        <v>246.8177523833448</v>
+        <v>31.42079898423155</v>
       </c>
       <c r="H17" t="n">
         <v>31.42079898423155</v>
@@ -5518,22 +5518,22 @@
         <v>303.5545878199213</v>
       </c>
       <c r="K17" t="n">
-        <v>692.3869752497867</v>
+        <v>352.9922617248808</v>
       </c>
       <c r="L17" t="n">
-        <v>815.88053444286</v>
+        <v>741.8246491547462</v>
       </c>
       <c r="M17" t="n">
-        <v>931.3983285730282</v>
+        <v>937.662430493141</v>
       </c>
       <c r="N17" t="n">
-        <v>1051.784296828599</v>
+        <v>1058.048398748712</v>
       </c>
       <c r="O17" t="n">
-        <v>1156.793433097343</v>
+        <v>1163.057535017456</v>
       </c>
       <c r="P17" t="n">
-        <v>1223.990650872165</v>
+        <v>1551.889922447322</v>
       </c>
       <c r="Q17" t="n">
         <v>1571.039949211578</v>
@@ -5542,25 +5542,25 @@
         <v>1571.039949211578</v>
       </c>
       <c r="S17" t="n">
-        <v>1571.039949211578</v>
+        <v>1532.440127224644</v>
       </c>
       <c r="T17" t="n">
-        <v>1571.039949211578</v>
+        <v>1408.639187559966</v>
       </c>
       <c r="U17" t="n">
-        <v>1571.039949211578</v>
+        <v>1246.000028043824</v>
       </c>
       <c r="V17" t="n">
-        <v>1321.924106725698</v>
+        <v>996.8841855579449</v>
       </c>
       <c r="W17" t="n">
-        <v>1043.916038504588</v>
+        <v>718.8761173368346</v>
       </c>
       <c r="X17" t="n">
-        <v>1043.916038504588</v>
+        <v>422.4144790804937</v>
       </c>
       <c r="Y17" t="n">
-        <v>1043.916038504588</v>
+        <v>350.0600472024045</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>373.5501834780734</v>
+        <v>280.559216667471</v>
       </c>
       <c r="C18" t="n">
-        <v>315.8869198487679</v>
+        <v>222.8959530381655</v>
       </c>
       <c r="D18" t="n">
-        <v>278.7889192808506</v>
+        <v>185.7979524702481</v>
       </c>
       <c r="E18" t="n">
-        <v>142.3424283917383</v>
+        <v>142.3424283917381</v>
       </c>
       <c r="F18" t="n">
-        <v>110.9015890854724</v>
+        <v>110.9015890854722</v>
       </c>
       <c r="G18" t="n">
-        <v>84.65271941610808</v>
+        <v>31.42079898423155</v>
       </c>
       <c r="H18" t="n">
         <v>31.42079898423155</v>
@@ -5600,46 +5600,46 @@
         <v>261.5375040526351</v>
       </c>
       <c r="L18" t="n">
-        <v>346.8750294271568</v>
+        <v>650.3698914825005</v>
       </c>
       <c r="M18" t="n">
-        <v>735.7074168570223</v>
+        <v>1039.202278912366</v>
       </c>
       <c r="N18" t="n">
-        <v>1040.927924325543</v>
+        <v>1391.827847062393</v>
       </c>
       <c r="O18" t="n">
-        <v>1140.379307252782</v>
+        <v>1491.279229989632</v>
       </c>
       <c r="P18" t="n">
-        <v>1207.631316782556</v>
+        <v>1558.531239519407</v>
       </c>
       <c r="Q18" t="n">
-        <v>1544.583389653973</v>
+        <v>1571.039949211578</v>
       </c>
       <c r="R18" t="n">
         <v>1571.039949211578</v>
       </c>
       <c r="S18" t="n">
-        <v>1544.331034680802</v>
+        <v>1451.3400678702</v>
       </c>
       <c r="T18" t="n">
-        <v>1370.65232354141</v>
+        <v>1277.661356730807</v>
       </c>
       <c r="U18" t="n">
-        <v>1160.643126367957</v>
+        <v>1067.652159557355</v>
       </c>
       <c r="V18" t="n">
-        <v>938.1031247390245</v>
+        <v>845.112157928422</v>
       </c>
       <c r="W18" t="n">
-        <v>707.9858788723113</v>
+        <v>707.9858788723111</v>
       </c>
       <c r="X18" t="n">
-        <v>611.6697680329253</v>
+        <v>518.6788012223228</v>
       </c>
       <c r="Y18" t="n">
-        <v>432.3555511084325</v>
+        <v>339.36458429783</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>448.5612415204122</v>
+        <v>414.2386582996848</v>
       </c>
       <c r="C19" t="n">
-        <v>371.3470903970037</v>
+        <v>337.0245071762763</v>
       </c>
       <c r="D19" t="n">
-        <v>308.7049441101207</v>
+        <v>274.3823608893933</v>
       </c>
       <c r="E19" t="n">
-        <v>246.1370987799255</v>
+        <v>211.8145155591981</v>
       </c>
       <c r="F19" t="n">
-        <v>181.8021308035007</v>
+        <v>147.4795475827734</v>
       </c>
       <c r="G19" t="n">
-        <v>107.2264886147314</v>
+        <v>87.79637309070975</v>
       </c>
       <c r="H19" t="n">
-        <v>50.85091450825314</v>
+        <v>31.42079898423155</v>
       </c>
       <c r="I19" t="n">
         <v>31.42079898423155</v>
       </c>
       <c r="J19" t="n">
-        <v>49.28222404559915</v>
+        <v>49.28222404559938</v>
       </c>
       <c r="K19" t="n">
-        <v>209.3964785642498</v>
+        <v>209.39647856425</v>
       </c>
       <c r="L19" t="n">
-        <v>473.6945610112909</v>
+        <v>473.694561011291</v>
       </c>
       <c r="M19" t="n">
         <v>765.6018261106162</v>
@@ -5715,10 +5715,10 @@
         <v>777.6661599595527</v>
       </c>
       <c r="X19" t="n">
-        <v>670.8993877738656</v>
+        <v>636.5768045531381</v>
       </c>
       <c r="Y19" t="n">
-        <v>540.7782934011112</v>
+        <v>506.4557101803838</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>663.5747897856455</v>
+        <v>624.9749677987119</v>
       </c>
       <c r="C20" t="n">
-        <v>363.3902550991784</v>
+        <v>324.7904331122447</v>
       </c>
       <c r="D20" t="n">
-        <v>70.9400931264484</v>
+        <v>32.34027113951475</v>
       </c>
       <c r="E20" t="n">
         <v>31.42079898423155</v>
@@ -5752,52 +5752,52 @@
         <v>31.42079898423155</v>
       </c>
       <c r="J20" t="n">
-        <v>42.40177534817052</v>
+        <v>303.5545878199213</v>
       </c>
       <c r="K20" t="n">
-        <v>156.0705567945175</v>
+        <v>352.9922617248808</v>
       </c>
       <c r="L20" t="n">
-        <v>544.902944224383</v>
+        <v>438.3102129898069</v>
       </c>
       <c r="M20" t="n">
-        <v>933.7353316542484</v>
+        <v>553.828007119975</v>
       </c>
       <c r="N20" t="n">
-        <v>1322.567719084114</v>
+        <v>674.2139753755462</v>
       </c>
       <c r="O20" t="n">
-        <v>1427.576855352858</v>
+        <v>835.1582634422997</v>
       </c>
       <c r="P20" t="n">
-        <v>1494.77407312768</v>
+        <v>1223.990650872165</v>
       </c>
       <c r="Q20" t="n">
-        <v>1513.924099891935</v>
+        <v>1571.039949211578</v>
       </c>
       <c r="R20" t="n">
         <v>1571.039949211578</v>
       </c>
       <c r="S20" t="n">
-        <v>1571.039949211578</v>
+        <v>1532.440127224644</v>
       </c>
       <c r="T20" t="n">
-        <v>1571.039949211578</v>
+        <v>1532.440127224644</v>
       </c>
       <c r="U20" t="n">
-        <v>1571.039949211578</v>
+        <v>1532.440127224644</v>
       </c>
       <c r="V20" t="n">
-        <v>1571.039949211578</v>
+        <v>1532.440127224644</v>
       </c>
       <c r="W20" t="n">
-        <v>1571.039949211578</v>
+        <v>1532.440127224644</v>
       </c>
       <c r="X20" t="n">
-        <v>1274.578310955237</v>
+        <v>1235.978488968303</v>
       </c>
       <c r="Y20" t="n">
-        <v>971.0785686864401</v>
+        <v>932.4787466995065</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>373.5501834780733</v>
+        <v>652.5230839098801</v>
       </c>
       <c r="C21" t="n">
-        <v>222.8959530381655</v>
+        <v>501.8688534699724</v>
       </c>
       <c r="D21" t="n">
-        <v>185.7979524702481</v>
+        <v>371.7798860914527</v>
       </c>
       <c r="E21" t="n">
-        <v>142.3424283917381</v>
+        <v>235.3333952023404</v>
       </c>
       <c r="F21" t="n">
         <v>110.9015890854722</v>
       </c>
       <c r="G21" t="n">
-        <v>84.65271941610791</v>
+        <v>31.42079898423155</v>
       </c>
       <c r="H21" t="n">
         <v>31.42079898423155</v>
@@ -5831,22 +5831,22 @@
         <v>31.42079898423155</v>
       </c>
       <c r="J21" t="n">
-        <v>31.42079898423155</v>
+        <v>220.4643877370566</v>
       </c>
       <c r="K21" t="n">
-        <v>415.4275328123975</v>
+        <v>261.5375040526351</v>
       </c>
       <c r="L21" t="n">
-        <v>804.259920242263</v>
+        <v>346.8750294271568</v>
       </c>
       <c r="M21" t="n">
-        <v>916.4267515552691</v>
+        <v>459.041860740163</v>
       </c>
       <c r="N21" t="n">
-        <v>1040.927924325543</v>
+        <v>583.5430335104369</v>
       </c>
       <c r="O21" t="n">
-        <v>1140.379307252782</v>
+        <v>972.3754209403023</v>
       </c>
       <c r="P21" t="n">
         <v>1207.631316782556</v>
@@ -5858,25 +5858,25 @@
         <v>1571.039949211578</v>
       </c>
       <c r="S21" t="n">
-        <v>1451.3400678702</v>
+        <v>1544.331034680802</v>
       </c>
       <c r="T21" t="n">
-        <v>1277.661356730807</v>
+        <v>1463.643290352012</v>
       </c>
       <c r="U21" t="n">
-        <v>1160.643126367957</v>
+        <v>1346.625059989162</v>
       </c>
       <c r="V21" t="n">
-        <v>938.1031247390242</v>
+        <v>1217.076025170831</v>
       </c>
       <c r="W21" t="n">
-        <v>707.9858788723111</v>
+        <v>1079.94974611472</v>
       </c>
       <c r="X21" t="n">
-        <v>518.6788012223228</v>
+        <v>983.6336352753342</v>
       </c>
       <c r="Y21" t="n">
-        <v>432.3555511084323</v>
+        <v>804.3194183508415</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>448.5612415204122</v>
+        <v>414.2386582996848</v>
       </c>
       <c r="C22" t="n">
-        <v>371.3470903970037</v>
+        <v>337.0245071762763</v>
       </c>
       <c r="D22" t="n">
-        <v>308.7049441101207</v>
+        <v>274.3823608893933</v>
       </c>
       <c r="E22" t="n">
-        <v>246.1370987799255</v>
+        <v>211.8145155591981</v>
       </c>
       <c r="F22" t="n">
-        <v>181.8021308035007</v>
+        <v>147.4795475827734</v>
       </c>
       <c r="G22" t="n">
         <v>107.2264886147314</v>
@@ -5910,7 +5910,7 @@
         <v>31.42079898423155</v>
       </c>
       <c r="J22" t="n">
-        <v>49.28222404559909</v>
+        <v>49.28222404559908</v>
       </c>
       <c r="K22" t="n">
         <v>209.3964785642497</v>
@@ -5940,22 +5940,22 @@
         <v>1473.195121982616</v>
       </c>
       <c r="T22" t="n">
-        <v>1367.726884759961</v>
+        <v>1333.404301539233</v>
       </c>
       <c r="U22" t="n">
-        <v>1175.316556807074</v>
+        <v>1140.993973586346</v>
       </c>
       <c r="V22" t="n">
-        <v>1002.3281784385</v>
+        <v>968.0055952177728</v>
       </c>
       <c r="W22" t="n">
-        <v>811.9887431802802</v>
+        <v>777.6661599595527</v>
       </c>
       <c r="X22" t="n">
-        <v>670.8993877738656</v>
+        <v>636.5768045531381</v>
       </c>
       <c r="Y22" t="n">
-        <v>540.7782934011112</v>
+        <v>506.4557101803838</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1823.954663414919</v>
+        <v>1592.396938523589</v>
       </c>
       <c r="C23" t="n">
-        <v>1523.770128728452</v>
+        <v>1292.212403837122</v>
       </c>
       <c r="D23" t="n">
-        <v>1231.319966755722</v>
+        <v>999.7622418643916</v>
       </c>
       <c r="E23" t="n">
-        <v>921.7274086828687</v>
+        <v>690.1696837915385</v>
       </c>
       <c r="F23" t="n">
-        <v>597.8239370234487</v>
+        <v>366.2662121321185</v>
       </c>
       <c r="G23" t="n">
         <v>279.1846888052757</v>
       </c>
       <c r="H23" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="I23" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J23" t="n">
         <v>335.9215242418521</v>
       </c>
       <c r="K23" t="n">
-        <v>631.8141578614961</v>
+        <v>561.6638503608986</v>
       </c>
       <c r="L23" t="n">
-        <v>1362.168088878138</v>
+        <v>1292.01778137754</v>
       </c>
       <c r="M23" t="n">
-        <v>2151.541314529398</v>
+        <v>1407.535575507708</v>
       </c>
       <c r="N23" t="n">
-        <v>2940.914540180659</v>
+        <v>1527.92154376328</v>
       </c>
       <c r="O23" t="n">
-        <v>3045.923676449403</v>
+        <v>2221.038479974208</v>
       </c>
       <c r="P23" t="n">
-        <v>3113.120894224225</v>
+        <v>2785.221622649067</v>
       </c>
       <c r="Q23" t="n">
         <v>3132.27092098848</v>
@@ -6016,13 +6016,13 @@
         <v>3189.386770308122</v>
       </c>
       <c r="S23" t="n">
-        <v>3150.786948321189</v>
+        <v>3150.786948321188</v>
       </c>
       <c r="T23" t="n">
-        <v>3026.986008656511</v>
+        <v>3026.98600865651</v>
       </c>
       <c r="U23" t="n">
-        <v>3026.986008656511</v>
+        <v>3026.98600865651</v>
       </c>
       <c r="V23" t="n">
         <v>2777.870166170631</v>
@@ -6034,7 +6034,7 @@
         <v>2203.40045969318</v>
       </c>
       <c r="Y23" t="n">
-        <v>2131.458442315714</v>
+        <v>1899.900717424383</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>284.5611303569716</v>
       </c>
       <c r="G24" t="n">
-        <v>165.3212938770051</v>
+        <v>165.321293877005</v>
       </c>
       <c r="H24" t="n">
-        <v>84.94317199018577</v>
+        <v>84.94317199018576</v>
       </c>
       <c r="I24" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J24" t="n">
-        <v>63.78773540616245</v>
+        <v>252.8313241589875</v>
       </c>
       <c r="K24" t="n">
-        <v>104.8608517217409</v>
+        <v>702.3445525167924</v>
       </c>
       <c r="L24" t="n">
-        <v>190.1983770962627</v>
+        <v>787.6820778913142</v>
       </c>
       <c r="M24" t="n">
-        <v>302.3652084092688</v>
+        <v>899.8489092043203</v>
       </c>
       <c r="N24" t="n">
-        <v>1023.318323419006</v>
+        <v>1024.350081974594</v>
       </c>
       <c r="O24" t="n">
-        <v>1731.050672237226</v>
+        <v>1380.150749500376</v>
       </c>
       <c r="P24" t="n">
-        <v>2290.13658165452</v>
+        <v>1939.23665891767</v>
       </c>
       <c r="Q24" t="n">
-        <v>2302.645291346691</v>
+        <v>2276.188731789086</v>
       </c>
       <c r="R24" t="n">
         <v>2302.645291346691</v>
@@ -6141,19 +6141,19 @@
         <v>139.5934250366622</v>
       </c>
       <c r="H25" t="n">
-        <v>83.21785093018404</v>
+        <v>83.21785093018403</v>
       </c>
       <c r="I25" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J25" t="n">
-        <v>81.64916046752998</v>
+        <v>81.64916046752997</v>
       </c>
       <c r="K25" t="n">
         <v>241.7634149861806</v>
       </c>
       <c r="L25" t="n">
-        <v>506.0614974332217</v>
+        <v>506.0614974332216</v>
       </c>
       <c r="M25" t="n">
         <v>797.9687625325471</v>
@@ -6162,10 +6162,10 @@
         <v>1084.262778356307</v>
       </c>
       <c r="O25" t="n">
-        <v>1376.523713131935</v>
+        <v>1342.201129911208</v>
       </c>
       <c r="P25" t="n">
-        <v>1577.888662569661</v>
+        <v>1543.566079348933</v>
       </c>
       <c r="Q25" t="n">
         <v>1637.729468854236</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1406.4918971434</v>
+        <v>1754.274504198014</v>
       </c>
       <c r="C26" t="n">
-        <v>1077.164003620491</v>
+        <v>1424.946610675106</v>
       </c>
       <c r="D26" t="n">
-        <v>755.5704828113192</v>
+        <v>1103.353089865934</v>
       </c>
       <c r="E26" t="n">
-        <v>416.8345659020242</v>
+        <v>764.6171729566388</v>
       </c>
       <c r="F26" t="n">
-        <v>63.78773540616245</v>
+        <v>411.5703424607771</v>
       </c>
       <c r="G26" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="H26" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="I26" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J26" t="n">
         <v>335.9215242418521</v>
@@ -6232,19 +6232,19 @@
         <v>885.9693733217184</v>
       </c>
       <c r="L26" t="n">
-        <v>971.2873245866446</v>
+        <v>1616.32330433836</v>
       </c>
       <c r="M26" t="n">
-        <v>1760.660550237905</v>
+        <v>1731.841098468528</v>
       </c>
       <c r="N26" t="n">
-        <v>2550.033775889165</v>
+        <v>2024.907468663318</v>
       </c>
       <c r="O26" t="n">
-        <v>2655.04291215791</v>
+        <v>2718.024404874246</v>
       </c>
       <c r="P26" t="n">
-        <v>2785.221622649068</v>
+        <v>2785.221622649067</v>
       </c>
       <c r="Q26" t="n">
         <v>3132.27092098848</v>
@@ -6253,25 +6253,25 @@
         <v>3189.386770308122</v>
       </c>
       <c r="S26" t="n">
-        <v>3189.386770308122</v>
+        <v>3121.643589484746</v>
       </c>
       <c r="T26" t="n">
-        <v>3178.580279811114</v>
+        <v>2968.699290983626</v>
       </c>
       <c r="U26" t="n">
-        <v>2986.797761458531</v>
+        <v>2968.699290983626</v>
       </c>
       <c r="V26" t="n">
-        <v>2708.53856013621</v>
+        <v>2719.674029453588</v>
       </c>
       <c r="W26" t="n">
-        <v>2401.387133078658</v>
+        <v>2412.522602396036</v>
       </c>
       <c r="X26" t="n">
-        <v>2075.782135985875</v>
+        <v>2086.917605303253</v>
       </c>
       <c r="Y26" t="n">
-        <v>1743.139034880636</v>
+        <v>1754.274504198014</v>
       </c>
     </row>
     <row r="27">
@@ -6296,13 +6296,13 @@
         <v>284.5611303569716</v>
       </c>
       <c r="G27" t="n">
-        <v>165.3212938770051</v>
+        <v>165.321293877005</v>
       </c>
       <c r="H27" t="n">
-        <v>84.94317199018577</v>
+        <v>84.94317199018576</v>
       </c>
       <c r="I27" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J27" t="n">
         <v>252.8313241589875</v>
@@ -6311,19 +6311,19 @@
         <v>702.3445525167924</v>
       </c>
       <c r="L27" t="n">
-        <v>1360.407907177977</v>
+        <v>787.6820778913142</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.475456869628</v>
+        <v>899.8489092043203</v>
       </c>
       <c r="N27" t="n">
-        <v>2096.976629639902</v>
+        <v>1024.350081974594</v>
       </c>
       <c r="O27" t="n">
-        <v>2196.42801256714</v>
+        <v>1380.150749500376</v>
       </c>
       <c r="P27" t="n">
-        <v>2263.680022096915</v>
+        <v>1939.23665891767</v>
       </c>
       <c r="Q27" t="n">
         <v>2276.188731789086</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.9316897974359</v>
+        <v>684.9316897974358</v>
       </c>
       <c r="C28" t="n">
-        <v>578.5741798375856</v>
+        <v>578.5741798375855</v>
       </c>
       <c r="D28" t="n">
-        <v>486.7886747142608</v>
+        <v>486.7886747142607</v>
       </c>
       <c r="E28" t="n">
-        <v>395.0774705476237</v>
+        <v>395.0774705476236</v>
       </c>
       <c r="F28" t="n">
-        <v>301.5991437347571</v>
+        <v>301.599143734757</v>
       </c>
       <c r="G28" t="n">
         <v>197.8801427095459</v>
       </c>
       <c r="H28" t="n">
-        <v>112.3612097666259</v>
+        <v>112.3612097666258</v>
       </c>
       <c r="I28" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J28" t="n">
         <v>144.2262010430046</v>
@@ -6417,7 +6417,7 @@
         <v>1778.957486055636</v>
       </c>
       <c r="U28" t="n">
-        <v>1557.403799266307</v>
+        <v>1557.403799266306</v>
       </c>
       <c r="V28" t="n">
         <v>1355.272062061291</v>
@@ -6426,10 +6426,10 @@
         <v>1135.789267966629</v>
       </c>
       <c r="X28" t="n">
-        <v>965.5565537237728</v>
+        <v>965.5565537237727</v>
       </c>
       <c r="Y28" t="n">
-        <v>806.2921005145766</v>
+        <v>806.2921005145765</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1754.274504198015</v>
+        <v>1669.486922910661</v>
       </c>
       <c r="C29" t="n">
-        <v>1424.946610675106</v>
+        <v>1669.486922910661</v>
       </c>
       <c r="D29" t="n">
-        <v>1103.353089865934</v>
+        <v>1347.893402101489</v>
       </c>
       <c r="E29" t="n">
-        <v>764.617172956639</v>
+        <v>1009.157485192194</v>
       </c>
       <c r="F29" t="n">
-        <v>411.5703424607772</v>
+        <v>656.1106546963323</v>
       </c>
       <c r="G29" t="n">
-        <v>63.78773540616245</v>
+        <v>308.3280476417175</v>
       </c>
       <c r="H29" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="I29" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J29" t="n">
         <v>335.9215242418521</v>
@@ -6469,46 +6469,46 @@
         <v>885.9693733217184</v>
       </c>
       <c r="L29" t="n">
-        <v>971.2873245866446</v>
+        <v>1616.32330433836</v>
       </c>
       <c r="M29" t="n">
-        <v>1760.660550237905</v>
+        <v>1731.841098468528</v>
       </c>
       <c r="N29" t="n">
-        <v>2550.033775889165</v>
+        <v>1852.227066724099</v>
       </c>
       <c r="O29" t="n">
-        <v>2655.04291215791</v>
+        <v>2221.038479974208</v>
       </c>
       <c r="P29" t="n">
-        <v>2842.33747196871</v>
+        <v>2785.221622649067</v>
       </c>
       <c r="Q29" t="n">
-        <v>3189.386770308122</v>
+        <v>3132.27092098848</v>
       </c>
       <c r="R29" t="n">
         <v>3189.386770308122</v>
       </c>
       <c r="S29" t="n">
-        <v>3189.386770308122</v>
+        <v>3121.643589484746</v>
       </c>
       <c r="T29" t="n">
-        <v>3189.386770308122</v>
+        <v>2968.699290983626</v>
       </c>
       <c r="U29" t="n">
-        <v>3189.386770308122</v>
+        <v>2776.916772631043</v>
       </c>
       <c r="V29" t="n">
-        <v>3056.321167190825</v>
+        <v>2498.657571308722</v>
       </c>
       <c r="W29" t="n">
-        <v>2749.169740133273</v>
+        <v>2191.50614425117</v>
       </c>
       <c r="X29" t="n">
-        <v>2423.56474304049</v>
+        <v>1865.901147158387</v>
       </c>
       <c r="Y29" t="n">
-        <v>2090.921641935252</v>
+        <v>1669.486922910661</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>84.94317199018577</v>
       </c>
       <c r="I30" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J30" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="K30" t="n">
         <v>104.8608517217409</v>
       </c>
       <c r="L30" t="n">
-        <v>762.924206382925</v>
+        <v>190.1983770962626</v>
       </c>
       <c r="M30" t="n">
-        <v>1390.651050536252</v>
+        <v>374.879074918415</v>
       </c>
       <c r="N30" t="n">
-        <v>1515.152223306526</v>
+        <v>1164.252300569675</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.884572124745</v>
+        <v>1871.984649387895</v>
       </c>
       <c r="P30" t="n">
-        <v>2290.13658165452</v>
+        <v>1939.23665891767</v>
       </c>
       <c r="Q30" t="n">
-        <v>2302.645291346691</v>
+        <v>2276.188731789086</v>
       </c>
       <c r="R30" t="n">
         <v>2302.645291346691</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.9316897974359</v>
+        <v>684.9316897974361</v>
       </c>
       <c r="C31" t="n">
-        <v>578.5741798375855</v>
+        <v>578.5741798375857</v>
       </c>
       <c r="D31" t="n">
-        <v>486.7886747142606</v>
+        <v>486.7886747142608</v>
       </c>
       <c r="E31" t="n">
-        <v>395.0774705476235</v>
+        <v>395.0774705476238</v>
       </c>
       <c r="F31" t="n">
-        <v>301.5991437347569</v>
+        <v>301.5991437347571</v>
       </c>
       <c r="G31" t="n">
-        <v>197.8801427095457</v>
+        <v>197.8801427095459</v>
       </c>
       <c r="H31" t="n">
         <v>112.3612097666259</v>
       </c>
       <c r="I31" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J31" t="n">
-        <v>144.2262010430045</v>
+        <v>144.2262010430046</v>
       </c>
       <c r="K31" t="n">
-        <v>366.9174961371297</v>
+        <v>366.9174961371299</v>
       </c>
       <c r="L31" t="n">
         <v>693.7926191596455</v>
@@ -6639,7 +6639,7 @@
         <v>1717.663373364055</v>
       </c>
       <c r="P31" t="n">
-        <v>1981.605363377256</v>
+        <v>1981.605363377255</v>
       </c>
       <c r="Q31" t="n">
         <v>2104.023210237306</v>
@@ -6651,7 +6651,7 @@
         <v>1947.89166533546</v>
       </c>
       <c r="T31" t="n">
-        <v>1778.957486055635</v>
+        <v>1778.957486055636</v>
       </c>
       <c r="U31" t="n">
         <v>1557.403799266307</v>
@@ -6660,13 +6660,13 @@
         <v>1355.272062061292</v>
       </c>
       <c r="W31" t="n">
-        <v>1135.789267966629</v>
+        <v>1135.78926796663</v>
       </c>
       <c r="X31" t="n">
-        <v>965.556553723773</v>
+        <v>965.5565537237733</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2921005145768</v>
+        <v>806.292100514577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1906.377364709741</v>
+        <v>1319.860843947686</v>
       </c>
       <c r="C32" t="n">
-        <v>1592.455713140803</v>
+        <v>1005.939192378748</v>
       </c>
       <c r="D32" t="n">
-        <v>1286.268434285603</v>
+        <v>699.7519135235482</v>
       </c>
       <c r="E32" t="n">
-        <v>962.9387593302794</v>
+        <v>625.2981707883889</v>
       </c>
       <c r="F32" t="n">
-        <v>625.2981707883891</v>
+        <v>625.2981707883889</v>
       </c>
       <c r="G32" t="n">
         <v>292.9218056877459</v>
       </c>
       <c r="H32" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="I32" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J32" t="n">
         <v>335.9215242418521</v>
@@ -6706,19 +6706,19 @@
         <v>885.9693733217184</v>
       </c>
       <c r="L32" t="n">
-        <v>971.2873245866446</v>
+        <v>1292.01778137754</v>
       </c>
       <c r="M32" t="n">
-        <v>1760.660550237905</v>
+        <v>1407.535575507708</v>
       </c>
       <c r="N32" t="n">
-        <v>2550.033775889165</v>
+        <v>1527.92154376328</v>
       </c>
       <c r="O32" t="n">
-        <v>2655.04291215791</v>
+        <v>2221.038479974208</v>
       </c>
       <c r="P32" t="n">
-        <v>2785.221622649068</v>
+        <v>2785.221622649067</v>
       </c>
       <c r="Q32" t="n">
         <v>3132.27092098848</v>
@@ -6727,25 +6727,25 @@
         <v>3189.386770308122</v>
       </c>
       <c r="S32" t="n">
-        <v>3146.799059886664</v>
+        <v>3137.049831438718</v>
       </c>
       <c r="T32" t="n">
-        <v>3146.799059886664</v>
+        <v>2999.51177489157</v>
       </c>
       <c r="U32" t="n">
-        <v>3146.799059886664</v>
+        <v>2823.135498492959</v>
       </c>
       <c r="V32" t="n">
-        <v>3146.799059886664</v>
+        <v>2560.282539124609</v>
       </c>
       <c r="W32" t="n">
-        <v>2855.053874783083</v>
+        <v>2268.537354021028</v>
       </c>
       <c r="X32" t="n">
-        <v>2544.855119644272</v>
+        <v>1958.338598882217</v>
       </c>
       <c r="Y32" t="n">
-        <v>2227.618260493005</v>
+        <v>1641.101739730951</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>284.5611303569716</v>
       </c>
       <c r="G33" t="n">
-        <v>165.3212938770051</v>
+        <v>165.321293877005</v>
       </c>
       <c r="H33" t="n">
-        <v>84.94317199018577</v>
+        <v>84.94317199018576</v>
       </c>
       <c r="I33" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J33" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="K33" t="n">
         <v>104.8608517217409</v>
       </c>
       <c r="L33" t="n">
-        <v>762.924206382925</v>
+        <v>190.1983770962627</v>
       </c>
       <c r="M33" t="n">
-        <v>1390.651050536252</v>
+        <v>979.5716027475228</v>
       </c>
       <c r="N33" t="n">
-        <v>1515.152223306526</v>
+        <v>1768.944828398783</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.884572124745</v>
+        <v>1868.396211326022</v>
       </c>
       <c r="P33" t="n">
-        <v>2290.13658165452</v>
+        <v>1965.693218475275</v>
       </c>
       <c r="Q33" t="n">
         <v>2302.645291346691</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.0879961196348</v>
+        <v>577.0879961196345</v>
       </c>
       <c r="C34" t="n">
-        <v>486.136728113756</v>
+        <v>486.1367281137558</v>
       </c>
       <c r="D34" t="n">
-        <v>409.7574649444028</v>
+        <v>409.7574649444026</v>
       </c>
       <c r="E34" t="n">
-        <v>333.4525027317374</v>
+        <v>333.4525027317372</v>
       </c>
       <c r="F34" t="n">
-        <v>255.3804178728423</v>
+        <v>255.3804178728422</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0676588016027</v>
+        <v>167.0676588016026</v>
       </c>
       <c r="H34" t="n">
-        <v>96.95496781265427</v>
+        <v>96.95496781265425</v>
       </c>
       <c r="I34" t="n">
-        <v>63.78773540616245</v>
+        <v>63.78773540616244</v>
       </c>
       <c r="J34" t="n">
         <v>159.3258587820922</v>
       </c>
       <c r="K34" t="n">
-        <v>319.4401133007428</v>
+        <v>397.1168116153051</v>
       </c>
       <c r="L34" t="n">
-        <v>583.7381957477839</v>
+        <v>739.0915923769085</v>
       </c>
       <c r="M34" t="n">
-        <v>896.7318192436744</v>
+        <v>1030.998857476234</v>
       </c>
       <c r="N34" t="n">
-        <v>1260.702533381996</v>
+        <v>1317.292873299994</v>
       </c>
       <c r="O34" t="n">
-        <v>1596.317583251459</v>
+        <v>1596.317583251458</v>
       </c>
       <c r="P34" t="n">
-        <v>1797.682532689185</v>
+        <v>1797.682532689184</v>
       </c>
       <c r="Q34" t="n">
-        <v>1857.52333897376</v>
+        <v>1857.523338973759</v>
       </c>
       <c r="R34" t="n">
-        <v>1843.78622209129</v>
+        <v>1843.786222091289</v>
       </c>
       <c r="S34" t="n">
-        <v>1732.204277979858</v>
+        <v>1732.204277979857</v>
       </c>
       <c r="T34" t="n">
-        <v>1578.676340654005</v>
+        <v>1578.676340654004</v>
       </c>
       <c r="U34" t="n">
-        <v>1372.528895818648</v>
+        <v>1372.528895818647</v>
       </c>
       <c r="V34" t="n">
-        <v>1185.803400567604</v>
+        <v>1185.803400567603</v>
       </c>
       <c r="W34" t="n">
-        <v>981.7268484269136</v>
+        <v>981.7268484269131</v>
       </c>
       <c r="X34" t="n">
-        <v>826.9003761380287</v>
+        <v>826.9003761380283</v>
       </c>
       <c r="Y34" t="n">
-        <v>683.0421648828041</v>
+        <v>683.0421648828037</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>989.0921445771808</v>
+        <v>282.0574220428248</v>
       </c>
       <c r="C35" t="n">
-        <v>675.1704930082434</v>
+        <v>282.0574220428248</v>
       </c>
       <c r="D35" t="n">
-        <v>368.9832141530431</v>
+        <v>265.7409193339834</v>
       </c>
       <c r="E35" t="n">
-        <v>368.9832141530431</v>
+        <v>265.7409193339834</v>
       </c>
       <c r="F35" t="n">
-        <v>368.9832141530431</v>
+        <v>265.7409193339834</v>
       </c>
       <c r="G35" t="n">
-        <v>36.60684905239995</v>
+        <v>265.7409193339834</v>
       </c>
       <c r="H35" t="n">
-        <v>36.60684905239995</v>
+        <v>36.60684905239994</v>
       </c>
       <c r="I35" t="n">
-        <v>36.60684905239995</v>
+        <v>36.60684905239994</v>
       </c>
       <c r="J35" t="n">
-        <v>47.58782541633892</v>
+        <v>308.7406378880896</v>
       </c>
       <c r="K35" t="n">
-        <v>97.02549932129847</v>
+        <v>761.7503949115388</v>
       </c>
       <c r="L35" t="n">
-        <v>550.0352563447479</v>
+        <v>1018.067188531637</v>
       </c>
       <c r="M35" t="n">
-        <v>1003.045013368197</v>
+        <v>1133.584982661805</v>
       </c>
       <c r="N35" t="n">
-        <v>1233.869601737829</v>
+        <v>1253.970950917376</v>
       </c>
       <c r="O35" t="n">
-        <v>1686.879358761278</v>
+        <v>1358.98008718612</v>
       </c>
       <c r="P35" t="n">
-        <v>1754.0765765361</v>
+        <v>1426.177304960942</v>
       </c>
       <c r="Q35" t="n">
         <v>1773.226603300355</v>
       </c>
       <c r="R35" t="n">
-        <v>1830.342452619998</v>
+        <v>1830.342452619997</v>
       </c>
       <c r="S35" t="n">
-        <v>1778.005513750594</v>
+        <v>1778.005513750593</v>
       </c>
       <c r="T35" t="n">
-        <v>1745.558239495409</v>
+        <v>1640.467457203444</v>
       </c>
       <c r="U35" t="n">
-        <v>1569.181963096797</v>
+        <v>1464.091180804833</v>
       </c>
       <c r="V35" t="n">
-        <v>1306.329003728448</v>
+        <v>1201.238221436483</v>
       </c>
       <c r="W35" t="n">
-        <v>1306.329003728448</v>
+        <v>909.4930363329026</v>
       </c>
       <c r="X35" t="n">
-        <v>1306.329003728448</v>
+        <v>599.2942811940916</v>
       </c>
       <c r="Y35" t="n">
-        <v>989.0921445771808</v>
+        <v>282.0574220428248</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>561.2401890432209</v>
+        <v>698.5924523154616</v>
       </c>
       <c r="C36" t="n">
-        <v>410.5859586033131</v>
+        <v>547.9382218755538</v>
       </c>
       <c r="D36" t="n">
-        <v>280.4969912247935</v>
+        <v>417.8492544970342</v>
       </c>
       <c r="E36" t="n">
-        <v>144.0505003356812</v>
+        <v>281.4027636079219</v>
       </c>
       <c r="F36" t="n">
-        <v>98.87254414694502</v>
+        <v>156.9709574910537</v>
       </c>
       <c r="G36" t="n">
-        <v>58.88655759511052</v>
+        <v>37.73112101108715</v>
       </c>
       <c r="H36" t="n">
-        <v>57.76228563642328</v>
+        <v>36.60684905239994</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60684905239995</v>
+        <v>36.60684905239994</v>
       </c>
       <c r="J36" t="n">
-        <v>197.8356603706977</v>
+        <v>225.650437805225</v>
       </c>
       <c r="K36" t="n">
-        <v>238.9087766862762</v>
+        <v>675.1636661630299</v>
       </c>
       <c r="L36" t="n">
-        <v>324.2463020607979</v>
+        <v>760.5011915375517</v>
       </c>
       <c r="M36" t="n">
-        <v>436.413133373804</v>
+        <v>872.6680228505578</v>
       </c>
       <c r="N36" t="n">
-        <v>560.914306144078</v>
+        <v>997.1691956208317</v>
       </c>
       <c r="O36" t="n">
-        <v>1013.924063167527</v>
+        <v>1096.62057854807</v>
       </c>
       <c r="P36" t="n">
-        <v>1466.933820190977</v>
+        <v>1466.933820190976</v>
       </c>
       <c r="Q36" t="n">
-        <v>1803.885893062393</v>
+        <v>1803.885893062392</v>
       </c>
       <c r="R36" t="n">
-        <v>1830.342452619998</v>
+        <v>1830.342452619997</v>
       </c>
       <c r="S36" t="n">
-        <v>1759.49527401089</v>
+        <v>1789.896421206751</v>
       </c>
       <c r="T36" t="n">
-        <v>1585.816562871498</v>
+        <v>1643.914976215606</v>
       </c>
       <c r="U36" t="n">
-        <v>1455.061215626177</v>
+        <v>1513.159628970286</v>
       </c>
       <c r="V36" t="n">
-        <v>1232.521213997244</v>
+        <v>1290.619627341353</v>
       </c>
       <c r="W36" t="n">
-        <v>1002.403968130531</v>
+        <v>1060.50238147464</v>
       </c>
       <c r="X36" t="n">
-        <v>892.3507404086749</v>
+        <v>950.4491537527836</v>
       </c>
       <c r="Y36" t="n">
-        <v>713.0365234841822</v>
+        <v>771.1349368282908</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>549.9071097658723</v>
+        <v>549.9071097658718</v>
       </c>
       <c r="C37" t="n">
-        <v>458.9558417599935</v>
+        <v>458.9558417599931</v>
       </c>
       <c r="D37" t="n">
-        <v>382.5765785906403</v>
+        <v>382.5765785906401</v>
       </c>
       <c r="E37" t="n">
-        <v>306.2716163779749</v>
+        <v>306.2716163779747</v>
       </c>
       <c r="F37" t="n">
-        <v>228.1995315190799</v>
+        <v>228.1995315190797</v>
       </c>
       <c r="G37" t="n">
-        <v>139.8867724478403</v>
+        <v>139.8867724478401</v>
       </c>
       <c r="H37" t="n">
-        <v>69.77408145889177</v>
+        <v>69.77408145889174</v>
       </c>
       <c r="I37" t="n">
-        <v>36.60684905239995</v>
+        <v>36.60684905239994</v>
       </c>
       <c r="J37" t="n">
-        <v>132.1449724283297</v>
+        <v>54.46827411376746</v>
       </c>
       <c r="K37" t="n">
-        <v>292.2592269469803</v>
+        <v>214.5825286324181</v>
       </c>
       <c r="L37" t="n">
         <v>556.5573093940213</v>
       </c>
       <c r="M37" t="n">
-        <v>869.550932889912</v>
+        <v>926.141272807909</v>
       </c>
       <c r="N37" t="n">
-        <v>1233.521647028234</v>
+        <v>1290.111986946231</v>
       </c>
       <c r="O37" t="n">
-        <v>1491.459998583135</v>
+        <v>1548.050338501132</v>
       </c>
       <c r="P37" t="n">
-        <v>1692.824948020861</v>
+        <v>1749.415287938858</v>
       </c>
       <c r="Q37" t="n">
-        <v>1830.342452619998</v>
+        <v>1830.342452619997</v>
       </c>
       <c r="R37" t="n">
         <v>1816.605335737527</v>
       </c>
       <c r="S37" t="n">
-        <v>1705.023391626095</v>
+        <v>1705.023391626094</v>
       </c>
       <c r="T37" t="n">
         <v>1551.495454300242</v>
       </c>
       <c r="U37" t="n">
-        <v>1345.348009464885</v>
+        <v>1345.348009464884</v>
       </c>
       <c r="V37" t="n">
         <v>1158.622514213841</v>
       </c>
       <c r="W37" t="n">
-        <v>954.545962073151</v>
+        <v>954.5459620731505</v>
       </c>
       <c r="X37" t="n">
-        <v>799.7194897842661</v>
+        <v>799.7194897842655</v>
       </c>
       <c r="Y37" t="n">
-        <v>655.8612785290416</v>
+        <v>655.8612785290411</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>885.849849758121</v>
+        <v>265.7409193339834</v>
       </c>
       <c r="C38" t="n">
-        <v>571.9281981891836</v>
+        <v>265.7409193339834</v>
       </c>
       <c r="D38" t="n">
         <v>265.7409193339834</v>
@@ -7174,25 +7174,25 @@
         <v>36.60684905239994</v>
       </c>
       <c r="J38" t="n">
-        <v>47.58782541633892</v>
+        <v>308.7406378880896</v>
       </c>
       <c r="K38" t="n">
-        <v>97.02549932129845</v>
+        <v>761.7503949115388</v>
       </c>
       <c r="L38" t="n">
-        <v>182.3434505862245</v>
+        <v>1214.760151934988</v>
       </c>
       <c r="M38" t="n">
-        <v>399.7718226584728</v>
+        <v>1461.484254236962</v>
       </c>
       <c r="N38" t="n">
-        <v>520.157790914044</v>
+        <v>1581.870222492533</v>
       </c>
       <c r="O38" t="n">
-        <v>973.1675479374933</v>
+        <v>1686.879358761277</v>
       </c>
       <c r="P38" t="n">
-        <v>1426.177304960943</v>
+        <v>1754.076576536099</v>
       </c>
       <c r="Q38" t="n">
         <v>1773.226603300355</v>
@@ -7204,22 +7204,22 @@
         <v>1778.005513750593</v>
       </c>
       <c r="T38" t="n">
-        <v>1778.005513750593</v>
+        <v>1640.467457203444</v>
       </c>
       <c r="U38" t="n">
-        <v>1778.005513750593</v>
+        <v>1464.091180804833</v>
       </c>
       <c r="V38" t="n">
-        <v>1778.005513750593</v>
+        <v>1201.238221436483</v>
       </c>
       <c r="W38" t="n">
-        <v>1513.285464048199</v>
+        <v>909.4930363329026</v>
       </c>
       <c r="X38" t="n">
-        <v>1203.086708909388</v>
+        <v>599.2942811940916</v>
       </c>
       <c r="Y38" t="n">
-        <v>885.849849758121</v>
+        <v>282.0574220428248</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>698.5924523154616</v>
+        <v>561.2401890432209</v>
       </c>
       <c r="C39" t="n">
-        <v>547.9382218755538</v>
+        <v>410.585958603313</v>
       </c>
       <c r="D39" t="n">
-        <v>417.8492544970342</v>
+        <v>359.7508411529254</v>
       </c>
       <c r="E39" t="n">
-        <v>281.4027636079219</v>
+        <v>302.5582001919452</v>
       </c>
       <c r="F39" t="n">
-        <v>156.9709574910537</v>
+        <v>178.126394075077</v>
       </c>
       <c r="G39" t="n">
-        <v>37.73112101108718</v>
+        <v>58.88655759511047</v>
       </c>
       <c r="H39" t="n">
-        <v>36.60684905239994</v>
+        <v>57.76228563642326</v>
       </c>
       <c r="I39" t="n">
         <v>36.60684905239994</v>
@@ -7268,37 +7268,37 @@
         <v>997.1691956208317</v>
       </c>
       <c r="O39" t="n">
-        <v>1364.823985904377</v>
+        <v>1096.62057854807</v>
       </c>
       <c r="P39" t="n">
-        <v>1817.833742927827</v>
+        <v>1466.933820190976</v>
       </c>
       <c r="Q39" t="n">
-        <v>1830.342452619997</v>
+        <v>1803.885893062392</v>
       </c>
       <c r="R39" t="n">
         <v>1830.342452619997</v>
       </c>
       <c r="S39" t="n">
-        <v>1789.896421206752</v>
+        <v>1789.896421206751</v>
       </c>
       <c r="T39" t="n">
         <v>1695.471559995491</v>
       </c>
       <c r="U39" t="n">
-        <v>1513.159628970286</v>
+        <v>1534.315065554309</v>
       </c>
       <c r="V39" t="n">
-        <v>1369.873477269485</v>
+        <v>1311.775063925376</v>
       </c>
       <c r="W39" t="n">
-        <v>1139.756231402772</v>
+        <v>1081.657818058663</v>
       </c>
       <c r="X39" t="n">
-        <v>950.4491537527837</v>
+        <v>892.3507404086749</v>
       </c>
       <c r="Y39" t="n">
-        <v>850.388786756423</v>
+        <v>713.0365234841822</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.907109765872</v>
+        <v>549.9071097658721</v>
       </c>
       <c r="C40" t="n">
-        <v>458.9558417599932</v>
+        <v>458.9558417599933</v>
       </c>
       <c r="D40" t="n">
-        <v>382.57657859064</v>
+        <v>382.5765785906401</v>
       </c>
       <c r="E40" t="n">
-        <v>306.2716163779745</v>
+        <v>306.2716163779747</v>
       </c>
       <c r="F40" t="n">
-        <v>228.1995315190795</v>
+        <v>228.1995315190797</v>
       </c>
       <c r="G40" t="n">
-        <v>139.8867724478399</v>
+        <v>139.8867724478401</v>
       </c>
       <c r="H40" t="n">
-        <v>69.77408145889177</v>
+        <v>69.77408145889174</v>
       </c>
       <c r="I40" t="n">
         <v>36.60684905239994</v>
@@ -7335,22 +7335,22 @@
         <v>132.1449724283297</v>
       </c>
       <c r="K40" t="n">
-        <v>369.9359252615425</v>
+        <v>313.3455853435444</v>
       </c>
       <c r="L40" t="n">
-        <v>711.9107060231457</v>
+        <v>655.3203661051477</v>
       </c>
       <c r="M40" t="n">
-        <v>1003.817971122471</v>
+        <v>1024.904329519035</v>
       </c>
       <c r="N40" t="n">
-        <v>1290.111986946231</v>
+        <v>1311.198345342795</v>
       </c>
       <c r="O40" t="n">
-        <v>1548.050338501132</v>
+        <v>1569.136696897696</v>
       </c>
       <c r="P40" t="n">
-        <v>1749.415287938858</v>
+        <v>1770.501646335422</v>
       </c>
       <c r="Q40" t="n">
         <v>1830.342452619997</v>
@@ -7359,7 +7359,7 @@
         <v>1816.605335737527</v>
       </c>
       <c r="S40" t="n">
-        <v>1705.023391626095</v>
+        <v>1705.023391626094</v>
       </c>
       <c r="T40" t="n">
         <v>1551.495454300242</v>
@@ -7374,10 +7374,10 @@
         <v>954.5459620731507</v>
       </c>
       <c r="X40" t="n">
-        <v>799.7194897842658</v>
+        <v>799.7194897842659</v>
       </c>
       <c r="Y40" t="n">
-        <v>655.8612785290412</v>
+        <v>655.8612785290413</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>433.0049678528536</v>
+        <v>911.6073998317322</v>
       </c>
       <c r="C41" t="n">
-        <v>433.0049678528536</v>
+        <v>911.6073998317322</v>
       </c>
       <c r="D41" t="n">
-        <v>433.0049678528536</v>
+        <v>911.6073998317322</v>
       </c>
       <c r="E41" t="n">
-        <v>433.0049678528536</v>
+        <v>554.1468917112691</v>
       </c>
       <c r="F41" t="n">
-        <v>433.0049678528536</v>
+        <v>182.3754700042392</v>
       </c>
       <c r="G41" t="n">
-        <v>66.49776958707068</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="H41" t="n">
-        <v>66.49776958707068</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="I41" t="n">
-        <v>32.36693642193089</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="J41" t="n">
-        <v>106.1380177812487</v>
+        <v>304.5007252576206</v>
       </c>
       <c r="K41" t="n">
-        <v>155.5756916862083</v>
+        <v>353.9383991625801</v>
       </c>
       <c r="L41" t="n">
-        <v>240.8936429511344</v>
+        <v>439.2563504275062</v>
       </c>
       <c r="M41" t="n">
-        <v>641.4344811725291</v>
+        <v>554.7741445576743</v>
       </c>
       <c r="N41" t="n">
-        <v>1041.975319393924</v>
+        <v>803.5594667609148</v>
       </c>
       <c r="O41" t="n">
-        <v>1146.984455662668</v>
+        <v>1204.100304982309</v>
       </c>
       <c r="P41" t="n">
-        <v>1214.18167343749</v>
+        <v>1271.297522757131</v>
       </c>
       <c r="Q41" t="n">
-        <v>1561.230971776902</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="R41" t="n">
-        <v>1618.346821096544</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="S41" t="n">
-        <v>1531.879049062001</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="T41" t="n">
-        <v>1411.236507603468</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="U41" t="n">
-        <v>1411.236507603468</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="V41" t="n">
-        <v>1114.252715069979</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="W41" t="n">
-        <v>788.3766968012583</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="X41" t="n">
-        <v>788.3766968012583</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="Y41" t="n">
-        <v>788.3766968012583</v>
+        <v>1266.979128780137</v>
       </c>
     </row>
     <row r="42">
@@ -7466,61 +7466,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>502.8682890351711</v>
+        <v>502.8682890351713</v>
       </c>
       <c r="C42" t="n">
-        <v>397.3370753582556</v>
+        <v>397.3370753582558</v>
       </c>
       <c r="D42" t="n">
-        <v>312.3711247427282</v>
+        <v>312.3711247427284</v>
       </c>
       <c r="E42" t="n">
-        <v>221.0476506166081</v>
+        <v>221.0476506166083</v>
       </c>
       <c r="F42" t="n">
-        <v>141.7388612627322</v>
+        <v>141.7388612627321</v>
       </c>
       <c r="G42" t="n">
-        <v>67.62204154575791</v>
+        <v>67.62204154575785</v>
       </c>
       <c r="H42" t="n">
-        <v>32.36693642193089</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="I42" t="n">
-        <v>32.36693642193089</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="J42" t="n">
         <v>221.4105251747559</v>
       </c>
       <c r="K42" t="n">
-        <v>262.4836414903344</v>
+        <v>621.9513633961503</v>
       </c>
       <c r="L42" t="n">
-        <v>347.8211668648561</v>
+        <v>707.2888887706721</v>
       </c>
       <c r="M42" t="n">
-        <v>748.3620050862509</v>
+        <v>819.4557200836782</v>
       </c>
       <c r="N42" t="n">
-        <v>1148.902843307646</v>
+        <v>943.9568928539521</v>
       </c>
       <c r="O42" t="n">
-        <v>1512.129542316994</v>
+        <v>1043.408275781191</v>
       </c>
       <c r="P42" t="n">
-        <v>1579.381551846769</v>
+        <v>1254.938188667522</v>
       </c>
       <c r="Q42" t="n">
-        <v>1591.890261538939</v>
+        <v>1591.890261538938</v>
       </c>
       <c r="R42" t="n">
-        <v>1618.346821096544</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="S42" t="n">
-        <v>1543.769956518159</v>
+        <v>1543.769956518158</v>
       </c>
       <c r="T42" t="n">
-        <v>1415.214262141759</v>
+        <v>1415.214262141758</v>
       </c>
       <c r="U42" t="n">
         <v>1250.328081731298</v>
@@ -7532,10 +7532,10 @@
         <v>887.9168677616368</v>
       </c>
       <c r="X42" t="n">
-        <v>743.7328068746407</v>
+        <v>743.7328068746408</v>
       </c>
       <c r="Y42" t="n">
-        <v>609.5416067131401</v>
+        <v>609.5416067131404</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.6371375790834</v>
+        <v>99.66500199356244</v>
       </c>
       <c r="C43" t="n">
-        <v>438.5550364080649</v>
+        <v>99.66500199356244</v>
       </c>
       <c r="D43" t="n">
-        <v>438.5550364080649</v>
+        <v>99.66500199356244</v>
       </c>
       <c r="E43" t="n">
-        <v>438.5550364080649</v>
+        <v>99.66500199356244</v>
       </c>
       <c r="F43" t="n">
-        <v>326.3521183840301</v>
+        <v>99.66500199356244</v>
       </c>
       <c r="G43" t="n">
-        <v>203.9085261476507</v>
+        <v>99.66500199356244</v>
       </c>
       <c r="H43" t="n">
-        <v>99.6650019935625</v>
+        <v>99.66500199356244</v>
       </c>
       <c r="I43" t="n">
-        <v>32.36693642193089</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="J43" t="n">
-        <v>94.45343021270713</v>
+        <v>94.45343021270715</v>
       </c>
       <c r="K43" t="n">
         <v>254.5676847313578</v>
@@ -7578,43 +7578,43 @@
         <v>518.8657671783988</v>
       </c>
       <c r="M43" t="n">
-        <v>812.908697995583</v>
+        <v>810.7730322777243</v>
       </c>
       <c r="N43" t="n">
-        <v>1099.202713819343</v>
+        <v>1097.067048101484</v>
       </c>
       <c r="O43" t="n">
-        <v>1357.141065374244</v>
+        <v>1357.141065374243</v>
       </c>
       <c r="P43" t="n">
-        <v>1558.506014811969</v>
+        <v>1558.506014811968</v>
       </c>
       <c r="Q43" t="n">
-        <v>1618.346821096544</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="R43" t="n">
-        <v>1570.478871048934</v>
+        <v>1570.478871048933</v>
       </c>
       <c r="S43" t="n">
-        <v>1529.732203103795</v>
+        <v>1424.766093772361</v>
       </c>
       <c r="T43" t="n">
-        <v>1529.732203103795</v>
+        <v>1237.107323281369</v>
       </c>
       <c r="U43" t="n">
-        <v>1529.732203103795</v>
+        <v>996.8290452808722</v>
       </c>
       <c r="V43" t="n">
-        <v>1308.875874687611</v>
+        <v>775.9727168646887</v>
       </c>
       <c r="W43" t="n">
-        <v>1070.668489381781</v>
+        <v>537.7653315588586</v>
       </c>
       <c r="X43" t="n">
-        <v>881.7111839277568</v>
+        <v>348.8080261048341</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.7221395073924</v>
+        <v>170.8189816844697</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>995.4959212295291</v>
+        <v>939.1870292870148</v>
       </c>
       <c r="C44" t="n">
-        <v>995.4959212295291</v>
+        <v>939.1870292870148</v>
       </c>
       <c r="D44" t="n">
-        <v>756.334642808177</v>
+        <v>598.8689172666748</v>
       </c>
       <c r="E44" t="n">
-        <v>398.8741346877139</v>
+        <v>295.631839868654</v>
       </c>
       <c r="F44" t="n">
-        <v>398.8741346877139</v>
+        <v>295.631839868654</v>
       </c>
       <c r="G44" t="n">
-        <v>32.36693642193089</v>
+        <v>295.631839868654</v>
       </c>
       <c r="H44" t="n">
-        <v>32.36693642193089</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="I44" t="n">
-        <v>32.36693642193089</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="J44" t="n">
         <v>304.5007252576206</v>
       </c>
       <c r="K44" t="n">
-        <v>353.9383991625801</v>
+        <v>444.5258346163268</v>
       </c>
       <c r="L44" t="n">
-        <v>439.2563504275063</v>
+        <v>529.843785881253</v>
       </c>
       <c r="M44" t="n">
-        <v>554.7741445576744</v>
+        <v>645.3615800114211</v>
       </c>
       <c r="N44" t="n">
-        <v>675.1601128132455</v>
+        <v>765.7475482669922</v>
       </c>
       <c r="O44" t="n">
-        <v>813.640835216095</v>
+        <v>870.7566845357364</v>
       </c>
       <c r="P44" t="n">
-        <v>1214.18167343749</v>
+        <v>1271.297522757131</v>
       </c>
       <c r="Q44" t="n">
-        <v>1561.230971776902</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="R44" t="n">
-        <v>1618.346821096544</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="S44" t="n">
-        <v>1531.879049062001</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="T44" t="n">
-        <v>1531.879049062001</v>
+        <v>1446.677931384255</v>
       </c>
       <c r="U44" t="n">
-        <v>1321.37193949825</v>
+        <v>1236.170821820504</v>
       </c>
       <c r="V44" t="n">
-        <v>1321.37193949825</v>
+        <v>939.1870292870148</v>
       </c>
       <c r="W44" t="n">
-        <v>995.4959212295291</v>
+        <v>939.1870292870148</v>
       </c>
       <c r="X44" t="n">
-        <v>995.4959212295291</v>
+        <v>939.1870292870148</v>
       </c>
       <c r="Y44" t="n">
-        <v>995.4959212295291</v>
+        <v>939.1870292870148</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>502.8682890351712</v>
+        <v>502.8682890351704</v>
       </c>
       <c r="C45" t="n">
-        <v>397.3370753582557</v>
+        <v>397.337075358255</v>
       </c>
       <c r="D45" t="n">
-        <v>312.3711247427284</v>
+        <v>312.3711247427277</v>
       </c>
       <c r="E45" t="n">
-        <v>221.0476506166083</v>
+        <v>221.0476506166078</v>
       </c>
       <c r="F45" t="n">
-        <v>141.7388612627322</v>
+        <v>141.738861262732</v>
       </c>
       <c r="G45" t="n">
-        <v>67.62204154575791</v>
+        <v>67.6220415457578</v>
       </c>
       <c r="H45" t="n">
-        <v>32.36693642193089</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="I45" t="n">
-        <v>32.36693642193089</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="J45" t="n">
-        <v>32.36693642193089</v>
+        <v>221.4105251747559</v>
       </c>
       <c r="K45" t="n">
-        <v>73.44005273750938</v>
+        <v>465.1398114585512</v>
       </c>
       <c r="L45" t="n">
-        <v>158.7775781120311</v>
+        <v>550.477336833073</v>
       </c>
       <c r="M45" t="n">
-        <v>559.3184163334258</v>
+        <v>662.6441681460791</v>
       </c>
       <c r="N45" t="n">
-        <v>959.8592545548206</v>
+        <v>787.145340916353</v>
       </c>
       <c r="O45" t="n">
-        <v>1178.840713625374</v>
+        <v>1187.686179137748</v>
       </c>
       <c r="P45" t="n">
-        <v>1579.381551846769</v>
+        <v>1254.938188667522</v>
       </c>
       <c r="Q45" t="n">
-        <v>1591.890261538939</v>
+        <v>1591.890261538938</v>
       </c>
       <c r="R45" t="n">
-        <v>1618.346821096544</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="S45" t="n">
-        <v>1543.769956518159</v>
+        <v>1543.769956518158</v>
       </c>
       <c r="T45" t="n">
-        <v>1415.214262141759</v>
+        <v>1415.214262141758</v>
       </c>
       <c r="U45" t="n">
-        <v>1250.328081731298</v>
+        <v>1250.328081731297</v>
       </c>
       <c r="V45" t="n">
-        <v>1072.911096865358</v>
+        <v>1072.911096865357</v>
       </c>
       <c r="W45" t="n">
-        <v>887.9168677616369</v>
+        <v>887.9168677616358</v>
       </c>
       <c r="X45" t="n">
-        <v>743.7328068746408</v>
+        <v>743.7328068746399</v>
       </c>
       <c r="Y45" t="n">
-        <v>609.5416067131404</v>
+        <v>609.5416067131393</v>
       </c>
     </row>
     <row r="46">
@@ -7782,52 +7782,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>432.8138117298955</v>
+        <v>674.1472339135757</v>
       </c>
       <c r="C46" t="n">
-        <v>432.8138117298955</v>
+        <v>549.0651327425574</v>
       </c>
       <c r="D46" t="n">
-        <v>322.3037153954025</v>
+        <v>438.5550364080645</v>
       </c>
       <c r="E46" t="n">
-        <v>211.8679200175973</v>
+        <v>438.5550364080645</v>
       </c>
       <c r="F46" t="n">
-        <v>99.6650019935625</v>
+        <v>326.3521183840298</v>
       </c>
       <c r="G46" t="n">
-        <v>99.6650019935625</v>
+        <v>203.9085261476505</v>
       </c>
       <c r="H46" t="n">
-        <v>99.6650019935625</v>
+        <v>99.66500199356238</v>
       </c>
       <c r="I46" t="n">
-        <v>32.36693642193089</v>
+        <v>32.36693642193087</v>
       </c>
       <c r="J46" t="n">
-        <v>94.45343021270713</v>
+        <v>50.22836148329839</v>
       </c>
       <c r="K46" t="n">
         <v>254.5676847313578</v>
       </c>
       <c r="L46" t="n">
-        <v>518.8657671783988</v>
+        <v>518.8657671783989</v>
       </c>
       <c r="M46" t="n">
         <v>810.7730322777243</v>
       </c>
       <c r="N46" t="n">
-        <v>1097.067048101484</v>
+        <v>1099.202713819342</v>
       </c>
       <c r="O46" t="n">
-        <v>1355.005399656385</v>
+        <v>1357.141065374243</v>
       </c>
       <c r="P46" t="n">
-        <v>1556.370349094111</v>
+        <v>1558.506014811968</v>
       </c>
       <c r="Q46" t="n">
-        <v>1618.346821096544</v>
+        <v>1618.346821096543</v>
       </c>
       <c r="R46" t="n">
         <v>1570.478871048934</v>
@@ -7836,22 +7836,22 @@
         <v>1424.766093772362</v>
       </c>
       <c r="T46" t="n">
-        <v>1237.10732328137</v>
+        <v>1237.107323281369</v>
       </c>
       <c r="U46" t="n">
-        <v>1000.063504418059</v>
+        <v>1181.178585716273</v>
       </c>
       <c r="V46" t="n">
-        <v>1000.063504418059</v>
+        <v>1181.178585716273</v>
       </c>
       <c r="W46" t="n">
-        <v>761.8561191122292</v>
+        <v>1181.178585716273</v>
       </c>
       <c r="X46" t="n">
-        <v>572.8988136582045</v>
+        <v>992.2212802622489</v>
       </c>
       <c r="Y46" t="n">
-        <v>572.8988136582045</v>
+        <v>814.2322358418846</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>124.6308918707363</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>124.6308918707363</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>320.4176180439953</v>
@@ -8853,7 +8853,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>104.0515317700687</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
         <v>278.4750710187352</v>
@@ -8862,13 +8862,13 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
-        <v>254.3449995307766</v>
+        <v>44.49073802271266</v>
       </c>
       <c r="P13" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.48975619598426</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,13 +8929,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>279.6648481187712</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>223.076438886508</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>182.3236689612838</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>320.4176180439952</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>44.82483791130491</v>
@@ -9008,7 +9008,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>13.44009137894492</v>
+        <v>252.7452284502301</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>239.305137071285</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.1260191269094</v>
+        <v>327.1260191269095</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9090,10 +9090,10 @@
         <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>253.4605344048249</v>
+        <v>122.0933752663997</v>
       </c>
       <c r="M16" t="n">
-        <v>86.66265300700164</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N16" t="n">
         <v>268.0356382773604</v>
@@ -9105,7 +9105,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>41.48975619598426</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>342.8229429544504</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>38.56122012944164</v>
+        <v>306.5802385504438</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>81.13130021032995</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>324.8840097525695</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>44.82483791130491</v>
@@ -9248,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>306.5604667225694</v>
       </c>
       <c r="M18" t="n">
         <v>279.4601576937973</v>
       </c>
       <c r="N18" t="n">
-        <v>182.5447825234816</v>
+        <v>230.4286822017713</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>44.29000737272614</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>64.87990660746209</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>306.5802385504437</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>276.0753467673711</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>271.1579991659539</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>56.50015333132251</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>324.8840097525695</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5176150018526</v>
+        <v>44.82483791130491</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>5.748895178689239</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>346.3975934470581</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>306.5604667225693</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>292.3040449521483</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>169.7008952651308</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9640,25 +9640,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>248.9444037522065</v>
+        <v>178.0855072869564</v>
       </c>
       <c r="L23" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>680.6620520415073</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>675.7447044400901</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>5.748895178689239</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>602.4767093327915</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>258.9386713116596</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>44.29000737272614</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,19 +9880,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>680.6620520415072</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>675.74470444009</v>
+        <v>174.4246484234526</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>63.61766941044093</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
@@ -9959,22 +9959,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>504.9502205844901</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>258.9386713116596</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10117,25 +10117,25 @@
         <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>680.6620520415072</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>675.74470444009</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>266.4669464458225</v>
       </c>
       <c r="P29" t="n">
-        <v>121.3104465009886</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>44.82483791130491</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>5.748895178689239</v>
+        <v>5.748895178689253</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>520.7676897376978</v>
+        <v>73.24632980721843</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>671.5879322030164</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>44.29000737272614</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,19 +10354,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>323.9701583746423</v>
       </c>
       <c r="M32" t="n">
-        <v>680.6620520415072</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>675.74470444009</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>63.61766941044093</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
@@ -10433,22 +10433,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>520.7676897376978</v>
+        <v>684.0468629679334</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>671.5879322030164</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>30.3484824439174</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>44.29000737272614</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>407.6485688065552</v>
       </c>
       <c r="L35" t="n">
-        <v>371.4058644025488</v>
+        <v>172.7261033890626</v>
       </c>
       <c r="M35" t="n">
-        <v>340.9009726194761</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>111.5541617313741</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>351.5157785401063</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>168.6062803486869</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>357.1296708042532</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>389.6542903976512</v>
+        <v>306.1224566799301</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>407.6485688065552</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>371.4058644025486</v>
       </c>
       <c r="M38" t="n">
-        <v>102.9399777192729</v>
+        <v>132.5316244159653</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>351.5157785401061</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>389.7096356046743</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>270.9125326831382</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>389.6542903976511</v>
+        <v>306.1224566799301</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>44.29000737272614</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>63.42434848018068</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>287.9020647386127</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>282.9847171371956</v>
+        <v>129.696317118858</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>298.5168706592427</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>44.82483791130491</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>363.0987089957737</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>291.286875665039</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>278.827944900122</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>266.4397132142522</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>145.735255915714</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11299,7 +11299,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>91.50246005428966</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>33.8096829637426</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>336.7107277238111</v>
+        <v>336.7107277238109</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>44.82483791130491</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>5.748895178689239</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>204.7032019880978</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>291.286875665039</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>278.827944900122</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>120.7374506498127</v>
+        <v>304.1307629233897</v>
       </c>
       <c r="P45" t="n">
-        <v>336.6553825167878</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>333.8483481727171</v>
       </c>
       <c r="C11" t="n">
         <v>326.6022964005329</v>
       </c>
       <c r="D11" t="n">
-        <v>318.9452674139332</v>
+        <v>55.99152237836461</v>
       </c>
       <c r="E11" t="n">
         <v>335.9162395530551</v>
@@ -23272,10 +23272,10 @@
         <v>350.0840440037562</v>
       </c>
       <c r="G11" t="n">
-        <v>255.6395857164197</v>
+        <v>344.8724627969216</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>242.6625909260526</v>
       </c>
       <c r="I11" t="n">
         <v>15.81986134728496</v>
@@ -23311,22 +23311,22 @@
         <v>67.63343082799469</v>
       </c>
       <c r="T11" t="n">
-        <v>151.9825373289619</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>190.4323749819104</v>
       </c>
       <c r="V11" t="n">
-        <v>276.044291121951</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>304.6475945998296</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>329.8843519070391</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>120.7144884228225</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>105.8616166731049</v>
       </c>
       <c r="D13" t="n">
         <v>91.43533188494462</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>91.36177393782373</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>93.111225357591</v>
       </c>
       <c r="G13" t="n">
         <v>103.2494928278121</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>85.23142542634389</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>126.285986017603</v>
+        <v>19.40587753701855</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>200.6781016458182</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>188.7223196912838</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>333.8483481727171</v>
       </c>
       <c r="C14" t="n">
-        <v>326.6022964005329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>274.3213210633697</v>
+        <v>318.9452674139332</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10.32296458172499</v>
+        <v>10.32296458172493</v>
       </c>
       <c r="G14" t="n">
-        <v>5.111383374890409</v>
+        <v>344.8724627969216</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.850701455932484</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.63343082799466</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>151.9825373289619</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.7144884228225</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>11.89389572027635</v>
       </c>
       <c r="E16" t="n">
-        <v>91.3617739378237</v>
+        <v>91.36177393782373</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>93.111225357591</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>85.23142542634386</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48.65542142971182</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>29.41960706093045</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>126.2859860176029</v>
+        <v>126.285986017603</v>
       </c>
       <c r="T16" t="n">
-        <v>39.60446085894517</v>
+        <v>167.8125192998791</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>219.9058317342884</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>169.0980689132809</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>289.5256603530026</v>
       </c>
       <c r="E17" t="n">
-        <v>153.4866219109109</v>
+        <v>306.4966324921246</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>320.6644369428258</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>213.2429838651221</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.21382376706421</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>122.5629302680314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>161.01276792098</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>293.4970218737775</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.4647448461086</v>
+        <v>228.8338572868004</v>
       </c>
     </row>
     <row r="18">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>14.74354301973869</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>19.23581436878137</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>33.97935738852019</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>267.3725312913299</v>
+        <v>305.5863550583942</v>
       </c>
       <c r="F20" t="n">
         <v>320.6644369428258</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>38.21382376706421</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>122.5629302680314</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>33.97935738852007</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>33.9793573885201</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>229.2421476424168</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>229.2421476424167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>333.280666359864</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>344.3047809840685</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>242.0949091131995</v>
       </c>
       <c r="I26" t="n">
-        <v>15.25217953443189</v>
+        <v>15.25217953443187</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.06574901514162</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>140.7164299240711</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>189.8646931690573</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>28.94160039436002</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>333.2806663598641</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>326.0346145876799</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>242.0949091131995</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>15.25217953443192</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.06574901514165</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>151.4148555161089</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>189.8646931690574</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>143.7416622229739</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>134.8665880889376</v>
       </c>
     </row>
     <row r="30">
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>246.3871728979624</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>334.2641826564712</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.651736163465607</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>136.162675981677</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>174.6125136346255</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>260.2244297746661</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>318.0284868254322</v>
+        <v>318.0284868254321</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>310.7824350532479</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>286.9720683848952</v>
       </c>
       <c r="E35" t="n">
-        <v>320.0963782057702</v>
+        <v>320.0963782057701</v>
       </c>
       <c r="F35" t="n">
-        <v>334.2641826564713</v>
+        <v>334.2641826564712</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>329.0526014496367</v>
       </c>
       <c r="H35" t="n">
-        <v>226.8427295787676</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>104.0398744690438</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>288.8277332525447</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>307.096767587423</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>318.0284868254322</v>
+        <v>301.8751491436792</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>310.7824350532479</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>303.1254060666482</v>
       </c>
       <c r="E38" t="n">
-        <v>320.0963782057702</v>
+        <v>320.0963782057701</v>
       </c>
       <c r="F38" t="n">
-        <v>334.2641826564713</v>
+        <v>334.2641826564712</v>
       </c>
       <c r="G38" t="n">
         <v>329.0526014496367</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>136.162675981677</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>174.6125136346255</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>260.2244297746661</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>26.7548840471743</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>344.5719598867364</v>
+        <v>344.5719598867363</v>
       </c>
       <c r="D41" t="n">
-        <v>336.9149309001366</v>
+        <v>336.9149309001365</v>
       </c>
       <c r="E41" t="n">
-        <v>353.8859030392586</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>368.0537074899597</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>214.3336780366398</v>
       </c>
       <c r="H41" t="n">
         <v>260.632254412256</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>33.78952483348836</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>85.60309431419807</v>
       </c>
       <c r="T41" t="n">
-        <v>50.51608477121786</v>
+        <v>169.9522008151653</v>
       </c>
       <c r="U41" t="n">
-        <v>208.4020384681139</v>
+        <v>208.4020384681138</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>294.0139546081544</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>322.617258086033</v>
       </c>
       <c r="X41" t="n">
-        <v>340.8862924209114</v>
+        <v>340.8862924209113</v>
       </c>
       <c r="Y41" t="n">
-        <v>347.8540153932425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>68.24171201502767</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>123.8312801593083</v>
       </c>
       <c r="D43" t="n">
-        <v>109.4049953711481</v>
+        <v>109.404995371148</v>
       </c>
       <c r="E43" t="n">
-        <v>109.3314374240272</v>
+        <v>109.3314374240271</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>111.0808888437944</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>121.2191563140155</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>103.2010889125473</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>103.9164482381185</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>185.7821827860825</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>237.8754952204918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.8180116589206</v>
+        <v>351.8180116589205</v>
       </c>
       <c r="C44" t="n">
-        <v>344.5719598867364</v>
+        <v>344.5719598867362</v>
       </c>
       <c r="D44" t="n">
-        <v>100.145265262998</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>53.68119641521793</v>
       </c>
       <c r="F44" t="n">
-        <v>368.0537074899597</v>
+        <v>368.0537074899595</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>362.842126283125</v>
       </c>
       <c r="H44" t="n">
-        <v>260.632254412256</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>33.7895248334884</v>
+        <v>33.7895248334883</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>85.60309431419802</v>
       </c>
       <c r="T44" t="n">
-        <v>169.9522008151654</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>294.0139546081544</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>322.617258086033</v>
       </c>
       <c r="X44" t="n">
-        <v>340.8862924209114</v>
+        <v>340.8862924209113</v>
       </c>
       <c r="Y44" t="n">
-        <v>347.8540153932425</v>
+        <v>347.8540153932424</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>123.8312801593083</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109.3314374240271</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>121.2191563140156</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>103.2010889125473</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>3.202114545814652</v>
+        <v>182.5060450310469</v>
       </c>
       <c r="V46" t="n">
-        <v>218.6477651320217</v>
+        <v>218.6477651320216</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>235.8253114527717</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.2091539761607</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>446205.5172359379</v>
+        <v>446205.5172359378</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>446205.5172359377</v>
+        <v>446205.5172359378</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>511646.5819623263</v>
+        <v>511646.5819623262</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>511646.5819623263</v>
+        <v>511646.5819623262</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679999.1730237184</v>
+        <v>679999.1730237182</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654140.0123084846</v>
+        <v>654140.0123084845</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>530144.633605705</v>
+        <v>530144.6336057049</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>460786.8356505791</v>
+        <v>460786.835650579</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>701606.9631273961</v>
       </c>
       <c r="C2" t="n">
-        <v>701606.9631273961</v>
+        <v>701606.9631273962</v>
       </c>
       <c r="D2" t="n">
-        <v>701606.9631273961</v>
+        <v>701606.9631273962</v>
       </c>
       <c r="E2" t="n">
-        <v>485372.062450739</v>
+        <v>485372.0624507392</v>
       </c>
       <c r="F2" t="n">
-        <v>485372.0624507389</v>
+        <v>485372.0624507391</v>
       </c>
       <c r="G2" t="n">
-        <v>550355.6737432241</v>
+        <v>550355.6737432242</v>
       </c>
       <c r="H2" t="n">
-        <v>550355.6737432241</v>
+        <v>550355.6737432242</v>
       </c>
       <c r="I2" t="n">
-        <v>673007.8105672162</v>
+        <v>673007.8105672167</v>
       </c>
       <c r="J2" t="n">
-        <v>640475.3180545026</v>
+        <v>640475.3180545019</v>
       </c>
       <c r="K2" t="n">
-        <v>640475.3180545026</v>
+        <v>640475.318054502</v>
       </c>
       <c r="L2" t="n">
-        <v>658231.1428595117</v>
+        <v>658231.1428595118</v>
       </c>
       <c r="M2" t="n">
-        <v>555898.8811627106</v>
+        <v>555898.8811627104</v>
       </c>
       <c r="N2" t="n">
-        <v>555898.8811627103</v>
+        <v>555898.8811627104</v>
       </c>
       <c r="O2" t="n">
-        <v>483136.4566164206</v>
+        <v>483136.4566164204</v>
       </c>
       <c r="P2" t="n">
-        <v>483136.4566164204</v>
+        <v>483136.4566164205</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38061.89131527076</v>
+        <v>38061.89131527086</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>107588.1012532036</v>
+        <v>107588.1012532035</v>
       </c>
       <c r="J3" t="n">
         <v>27031.6198667907</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>35737.42927628988</v>
+        <v>35737.42927628994</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>138841.1175990204</v>
       </c>
       <c r="F4" t="n">
-        <v>138841.1175990204</v>
+        <v>138841.1175990203</v>
       </c>
       <c r="G4" t="n">
         <v>173576.4739121621</v>
@@ -26441,13 +26441,13 @@
         <v>228395.9859682392</v>
       </c>
       <c r="J4" t="n">
-        <v>209496.7465881104</v>
+        <v>209496.7465881105</v>
       </c>
       <c r="K4" t="n">
-        <v>209496.7465881104</v>
+        <v>209496.7465881105</v>
       </c>
       <c r="L4" t="n">
-        <v>219814.2063941639</v>
+        <v>219814.206394164</v>
       </c>
       <c r="M4" t="n">
         <v>173521.4880206192</v>
@@ -26456,10 +26456,10 @@
         <v>173521.4880206192</v>
       </c>
       <c r="O4" t="n">
+        <v>133624.1542182682</v>
+      </c>
+      <c r="P4" t="n">
         <v>133624.1542182683</v>
-      </c>
-      <c r="P4" t="n">
-        <v>133624.1542182682</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>34151.15576210301</v>
+        <v>34151.15576210302</v>
       </c>
       <c r="F5" t="n">
         <v>34151.15576210302</v>
@@ -26490,28 +26490,28 @@
         <v>39846.76630726486</v>
       </c>
       <c r="I5" t="n">
-        <v>64445.63798793234</v>
+        <v>64445.63798793233</v>
       </c>
       <c r="J5" t="n">
         <v>62020.08548425171</v>
       </c>
       <c r="K5" t="n">
-        <v>62020.08548425171</v>
+        <v>62020.0854842517</v>
       </c>
       <c r="L5" t="n">
-        <v>63302.32096553187</v>
+        <v>63302.32096553186</v>
       </c>
       <c r="M5" t="n">
-        <v>42644.84733667238</v>
+        <v>42644.84733667236</v>
       </c>
       <c r="N5" t="n">
-        <v>42644.84733667237</v>
+        <v>42644.84733667236</v>
       </c>
       <c r="O5" t="n">
-        <v>36581.86217428935</v>
+        <v>36581.86217428934</v>
       </c>
       <c r="P5" t="n">
-        <v>36581.86217428935</v>
+        <v>36581.86217428934</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275407.3959017036</v>
+        <v>275403.0663339171</v>
       </c>
       <c r="C6" t="n">
-        <v>275407.3959017036</v>
+        <v>275403.0663339173</v>
       </c>
       <c r="D6" t="n">
-        <v>275407.3959017036</v>
+        <v>275403.0663339173</v>
       </c>
       <c r="E6" t="n">
-        <v>-142388.6720211079</v>
+        <v>-142947.4500521676</v>
       </c>
       <c r="F6" t="n">
-        <v>312379.7890896155</v>
+        <v>311821.0110585559</v>
       </c>
       <c r="G6" t="n">
-        <v>298870.5422085265</v>
+        <v>298478.3888218063</v>
       </c>
       <c r="H6" t="n">
-        <v>336932.4335237972</v>
+        <v>336540.2801370771</v>
       </c>
       <c r="I6" t="n">
-        <v>272578.0853578411</v>
+        <v>272500.4246296445</v>
       </c>
       <c r="J6" t="n">
-        <v>341926.8661153498</v>
+        <v>341765.7887396834</v>
       </c>
       <c r="K6" t="n">
-        <v>368958.4859821405</v>
+        <v>368797.4086064742</v>
       </c>
       <c r="L6" t="n">
-        <v>339377.186223526</v>
+        <v>339261.6366037707</v>
       </c>
       <c r="M6" t="n">
-        <v>339732.5458054191</v>
+        <v>339354.6057710563</v>
       </c>
       <c r="N6" t="n">
-        <v>339732.5458054187</v>
+        <v>339354.6057710563</v>
       </c>
       <c r="O6" t="n">
-        <v>312930.4402238631</v>
+        <v>312365.9298701509</v>
       </c>
       <c r="P6" t="n">
-        <v>312930.4402238628</v>
+        <v>312365.9298701509</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="F2" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="G2" t="n">
         <v>92.06105714249625</v>
@@ -26709,25 +26709,25 @@
         <v>92.06105714249625</v>
       </c>
       <c r="J2" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="K2" t="n">
         <v>63.20913189441882</v>
       </c>
       <c r="L2" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="M2" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="N2" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="O2" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="P2" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
     </row>
     <row r="3">
@@ -26764,7 +26764,7 @@
         <v>377.4072507493744</v>
       </c>
       <c r="K3" t="n">
-        <v>377.4072507493744</v>
+        <v>377.4072507493743</v>
       </c>
       <c r="L3" t="n">
         <v>377.4072507493744</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.7610794220312</v>
+        <v>339.7610794220313</v>
       </c>
       <c r="F4" t="n">
-        <v>339.7610794220312</v>
+        <v>339.7610794220313</v>
       </c>
       <c r="G4" t="n">
         <v>392.7599873028944</v>
@@ -26810,28 +26810,28 @@
         <v>392.7599873028944</v>
       </c>
       <c r="I4" t="n">
-        <v>797.3466925770306</v>
+        <v>797.3466925770305</v>
       </c>
       <c r="J4" t="n">
-        <v>797.3466925770306</v>
+        <v>797.3466925770305</v>
       </c>
       <c r="K4" t="n">
-        <v>797.3466925770306</v>
+        <v>797.3466925770305</v>
       </c>
       <c r="L4" t="n">
-        <v>797.3466925770306</v>
+        <v>797.3466925770305</v>
       </c>
       <c r="M4" t="n">
-        <v>457.5856131549994</v>
+        <v>457.5856131549992</v>
       </c>
       <c r="N4" t="n">
-        <v>457.5856131549993</v>
+        <v>457.5856131549992</v>
       </c>
       <c r="O4" t="n">
-        <v>404.5867052741361</v>
+        <v>404.5867052741359</v>
       </c>
       <c r="P4" t="n">
-        <v>404.5867052741361</v>
+        <v>404.5867052741359</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.41960706093045</v>
+        <v>29.4196070609305</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.78952483348838</v>
+        <v>33.78952483348837</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.7610794220312</v>
+        <v>339.7610794220313</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.99890788086323</v>
+        <v>52.99890788086346</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>404.5867052741362</v>
+        <v>404.5867052741361</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.41960706093045</v>
+        <v>29.4196070609305</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.78952483348838</v>
+        <v>33.78952483348837</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.7610794220312</v>
+        <v>339.7610794220313</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>52.99890788086323</v>
+        <v>52.99890788086346</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="C11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="D11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="E11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="F11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="G11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="H11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="I11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="T11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="U11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="V11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="W11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="X11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="Y11" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
     </row>
     <row r="12">
@@ -28168,25 +28168,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="C12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="D12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="E12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="F12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156599</v>
       </c>
       <c r="G12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="H12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="I12" t="n">
         <v>20.94388221818309</v>
@@ -28219,25 +28219,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="T12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="U12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="V12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="W12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="X12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
     </row>
     <row r="13">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="C13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="D13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="E13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="F13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="G13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="H13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="I13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28295,28 +28295,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="S13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="T13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="U13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="V13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="W13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="X13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.64145008156579</v>
+        <v>62.64145008156578</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="C14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="D14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="E14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="F14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="G14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="H14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="I14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="T14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="U14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="V14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="W14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="X14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="Y14" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
     </row>
     <row r="15">
@@ -28405,25 +28405,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="C15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="D15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="E15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="F15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="G15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="H15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="I15" t="n">
         <v>20.94388221818309</v>
@@ -28456,25 +28456,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="T15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="U15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="V15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="W15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="X15" t="n">
-        <v>62.64145008156584</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
     </row>
     <row r="16">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="C16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="D16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="E16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="F16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="G16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="H16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="I16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28532,28 +28532,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="S16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="T16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="U16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="V16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="W16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="X16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.64145008156581</v>
+        <v>62.64145008156578</v>
       </c>
     </row>
     <row r="17">
@@ -28651,16 +28651,16 @@
         <v>92.06105714249625</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>92.06105714249625</v>
       </c>
       <c r="F18" t="n">
         <v>92.06105714249625</v>
       </c>
       <c r="G18" t="n">
-        <v>92.06105714249625</v>
+        <v>39.36145591493865</v>
       </c>
       <c r="H18" t="n">
-        <v>26.87473944039333</v>
+        <v>79.57434066795109</v>
       </c>
       <c r="I18" t="n">
         <v>20.94388221818309</v>
@@ -28693,22 +28693,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>92.06105714249625</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
-        <v>92.06105714249625</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28879,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>92.06105714249625</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>92.06105714249625</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>92.06105714249625</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.06105714249625</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.06105714249625</v>
+        <v>39.36145591493863</v>
       </c>
       <c r="H21" t="n">
-        <v>26.8747394403935</v>
+        <v>79.57434066795109</v>
       </c>
       <c r="I21" t="n">
         <v>20.94388221818309</v>
@@ -28930,25 +28930,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>92.06105714249625</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>92.06105714249625</v>
       </c>
       <c r="U21" t="n">
         <v>92.06105714249625</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>92.06105714249625</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>92.06105714249625</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>92.06105714249625</v>
       </c>
       <c r="Y21" t="n">
-        <v>92.06105714249625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -29234,13 +29234,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.6692759805328</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>34.66927598053274</v>
       </c>
       <c r="R25" t="n">
         <v>92.06105714249625</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="C26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="D26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="E26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="F26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="G26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="H26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="I26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="T26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="U26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="V26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="W26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="X26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="Y26" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="C28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="D28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="E28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="F28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="G28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="H28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="I28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="J28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="K28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="L28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="M28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="N28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="O28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="P28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="R28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="S28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="T28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="U28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="V28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="W28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="X28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.20913189441885</v>
+        <v>63.20913189441886</v>
       </c>
     </row>
     <row r="29">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="C32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="D32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="E32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="F32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="G32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="H32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="I32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="T32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="U32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="V32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="W32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="X32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
     </row>
     <row r="33">
@@ -29906,46 +29906,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="C34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="D34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="E34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="F34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="G34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="H34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="I34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="J34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="M34" t="n">
-        <v>21.29935191572218</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>78.46131142885072</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>78.46131142885072</v>
+        <v>21.2993519157211</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29954,28 +29954,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="S34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="T34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="U34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="V34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="W34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="X34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="C35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="D35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="E35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="F35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="G35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="H35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="I35" t="n">
-        <v>78.46131142885073</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="T35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="U35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="V35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="W35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="X35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="Y35" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
     </row>
     <row r="36">
@@ -30064,7 +30064,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30076,16 +30076,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>78.46131142885072</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>78.46131142885072</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.94388221818309</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30115,13 +30115,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>48.36417570494743</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>27.42029348676516</v>
       </c>
       <c r="U36" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30130,7 +30130,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30143,43 +30143,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="C37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="D37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="E37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="F37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="G37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="H37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="I37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="J37" t="n">
-        <v>78.46131142885072</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="M37" t="n">
-        <v>21.29935191572247</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="N37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30188,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.46131142885072</v>
+        <v>21.29935191572145</v>
       </c>
       <c r="R37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="S37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="T37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="U37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="V37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="W37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="X37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="Y37" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="C38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="D38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="E38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="F38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="G38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="H38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="I38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="T38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="U38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="V38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="W38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="X38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="Y38" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
     </row>
     <row r="39">
@@ -30307,10 +30307,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30319,10 +30319,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="I39" t="n">
-        <v>20.94388221818309</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30352,16 +30352,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="T39" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="U39" t="n">
-        <v>27.42029348676485</v>
+        <v>48.36417570494822</v>
       </c>
       <c r="V39" t="n">
-        <v>78.46131142885072</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30370,7 +30370,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>78.46131142885072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30380,40 +30380,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="C40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="D40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="E40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="F40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="G40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="H40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="I40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="J40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="K40" t="n">
-        <v>78.46131142885072</v>
+        <v>21.2993519157213</v>
       </c>
       <c r="L40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30425,31 +30425,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.29935191572192</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="S40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="T40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="U40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="V40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="W40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="X40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
       <c r="Y40" t="n">
-        <v>78.46131142885072</v>
+        <v>78.46131142885075</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="C41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="D41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="E41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="F41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="G41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="H41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="I41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="T41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="U41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="V41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="W41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="X41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="Y41" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="C42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="D42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="E42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="F42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="G42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="H42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="I42" t="n">
         <v>20.94388221818309</v>
@@ -30589,25 +30589,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.67178659536235</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="T42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="U42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="V42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="W42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="X42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="Y42" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
     </row>
     <row r="43">
@@ -30617,31 +30617,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="C43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="D43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="E43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="F43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="G43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="H43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="I43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="J43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30650,13 +30650,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.157238098847245</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2.157238098846335</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30665,28 +30665,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="S43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="T43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="U43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="V43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="W43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="X43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536238</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="C44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="D44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="E44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="F44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="G44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="H44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="I44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="T44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="U44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="V44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="W44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="X44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="C45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="D45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="E45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="F45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="G45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="H45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="I45" t="n">
         <v>20.94388221818309</v>
@@ -30826,25 +30826,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="T45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="U45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="V45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="W45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="X45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="Y45" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
     </row>
     <row r="46">
@@ -30854,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="C46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="D46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="E46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="F46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="G46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="H46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="I46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="J46" t="n">
-        <v>44.67178659536234</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30890,7 +30890,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.157238098846335</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30899,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.157238098847181</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="S46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="T46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="U46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="V46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="W46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="X46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.67178659536234</v>
+        <v>44.67178659536243</v>
       </c>
     </row>
   </sheetData>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.517215078389444</v>
+        <v>1.517215078389443</v>
       </c>
       <c r="H29" t="n">
         <v>15.53817892155589</v>
       </c>
       <c r="I29" t="n">
-        <v>58.49243430960908</v>
+        <v>58.49243430960907</v>
       </c>
       <c r="J29" t="n">
-        <v>128.7717332594562</v>
+        <v>128.7717332594561</v>
       </c>
       <c r="K29" t="n">
         <v>192.9954475276813</v>
@@ -33192,13 +33192,13 @@
         <v>239.4279184829423</v>
       </c>
       <c r="M29" t="n">
-        <v>266.4096921332506</v>
+        <v>266.4096921332505</v>
       </c>
       <c r="N29" t="n">
         <v>270.7204794747246</v>
       </c>
       <c r="O29" t="n">
-        <v>255.6336720389896</v>
+        <v>255.6336720389895</v>
       </c>
       <c r="P29" t="n">
         <v>218.1774247912501</v>
@@ -33207,16 +33207,16 @@
         <v>163.8421597964281</v>
       </c>
       <c r="R29" t="n">
-        <v>95.30576166788097</v>
+        <v>95.30576166788096</v>
       </c>
       <c r="S29" t="n">
-        <v>34.57353859879948</v>
+        <v>34.57353859879947</v>
       </c>
       <c r="T29" t="n">
-        <v>6.641609005649793</v>
+        <v>6.641609005649792</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1213772062711555</v>
+        <v>0.1213772062711554</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8117816336873336</v>
+        <v>0.8117816336873335</v>
       </c>
       <c r="H30" t="n">
-        <v>7.840101567453987</v>
+        <v>7.840101567453985</v>
       </c>
       <c r="I30" t="n">
-        <v>27.94949923002443</v>
+        <v>27.94949923002442</v>
       </c>
       <c r="J30" t="n">
-        <v>76.69556215464411</v>
+        <v>76.69556215464409</v>
       </c>
       <c r="K30" t="n">
-        <v>131.0849316116955</v>
+        <v>131.0849316116954</v>
       </c>
       <c r="L30" t="n">
         <v>176.2598674372432</v>
@@ -33286,7 +33286,7 @@
         <v>103.6232134510358</v>
       </c>
       <c r="R30" t="n">
-        <v>50.40167020385044</v>
+        <v>50.40167020385043</v>
       </c>
       <c r="S30" t="n">
         <v>15.07848780116603</v>
@@ -33295,7 +33295,7 @@
         <v>3.272049655081839</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05340668642679829</v>
+        <v>0.05340668642679828</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6805704521710029</v>
+        <v>0.6805704521710028</v>
       </c>
       <c r="H31" t="n">
-        <v>6.050890020211285</v>
+        <v>6.050890020211284</v>
       </c>
       <c r="I31" t="n">
-        <v>20.46660959801526</v>
+        <v>20.46660959801525</v>
       </c>
       <c r="J31" t="n">
         <v>48.1163309684899</v>
       </c>
       <c r="K31" t="n">
-        <v>79.06991253404924</v>
+        <v>79.06991253404922</v>
       </c>
       <c r="L31" t="n">
         <v>101.1822652254962</v>
@@ -33356,13 +33356,13 @@
         <v>104.1458401944954</v>
       </c>
       <c r="O31" t="n">
-        <v>96.19553991231598</v>
+        <v>96.19553991231597</v>
       </c>
       <c r="P31" t="n">
-        <v>82.31190268802744</v>
+        <v>82.31190268802743</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.98849486315553</v>
+        <v>56.98849486315552</v>
       </c>
       <c r="R31" t="n">
         <v>30.60092233125254</v>
@@ -35412,7 +35412,7 @@
         <v>274.8826149855452</v>
       </c>
       <c r="K11" t="n">
-        <v>49.93704434844398</v>
+        <v>174.5679362191803</v>
       </c>
       <c r="L11" t="n">
         <v>86.17974875245062</v>
@@ -35427,10 +35427,10 @@
         <v>106.0698346148932</v>
       </c>
       <c r="P11" t="n">
-        <v>192.5068694210612</v>
+        <v>67.87597755032493</v>
       </c>
       <c r="Q11" t="n">
-        <v>339.7610794220312</v>
+        <v>339.7610794220313</v>
       </c>
       <c r="R11" t="n">
         <v>57.69277709054769</v>
@@ -35509,7 +35509,7 @@
         <v>67.93132275734823</v>
       </c>
       <c r="Q12" t="n">
-        <v>339.7610794220312</v>
+        <v>339.7610794220313</v>
       </c>
       <c r="R12" t="n">
         <v>26.72379753293433</v>
@@ -35573,7 +35573,7 @@
         <v>161.7315702208592</v>
       </c>
       <c r="L13" t="n">
-        <v>117.55875741276</v>
+        <v>266.9677600475162</v>
       </c>
       <c r="M13" t="n">
         <v>294.855823332652</v>
@@ -35582,13 +35582,13 @@
         <v>289.1858745694543</v>
       </c>
       <c r="O13" t="n">
-        <v>260.5437894493948</v>
+        <v>50.68952794133083</v>
       </c>
       <c r="P13" t="n">
         <v>203.3989388259856</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>60.44525887330801</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>274.8826149855452</v>
       </c>
       <c r="K14" t="n">
-        <v>49.93704434844398</v>
+        <v>329.6018924672152</v>
       </c>
       <c r="L14" t="n">
         <v>86.17974875245062</v>
       </c>
       <c r="M14" t="n">
-        <v>116.6846405355233</v>
+        <v>339.7610794220313</v>
       </c>
       <c r="N14" t="n">
         <v>121.6019881369405</v>
@@ -35664,10 +35664,10 @@
         <v>106.0698346148932</v>
       </c>
       <c r="P14" t="n">
-        <v>250.1996465116087</v>
+        <v>67.87597755032493</v>
       </c>
       <c r="Q14" t="n">
-        <v>339.7610794220312</v>
+        <v>19.34346137803598</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>190.9531199523485</v>
       </c>
       <c r="K15" t="n">
-        <v>54.92808765730702</v>
+        <v>294.2332247285922</v>
       </c>
       <c r="L15" t="n">
         <v>86.199520580325</v>
@@ -35740,13 +35740,13 @@
         <v>125.758760374014</v>
       </c>
       <c r="O15" t="n">
-        <v>339.7610794220312</v>
+        <v>100.4559423507461</v>
       </c>
       <c r="P15" t="n">
         <v>67.93132275734823</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.7610794220312</v>
+        <v>339.7610794220313</v>
       </c>
       <c r="R15" t="n">
         <v>26.72379753293433</v>
@@ -35810,10 +35810,10 @@
         <v>161.7315702208592</v>
       </c>
       <c r="L16" t="n">
-        <v>266.9677600475162</v>
+        <v>135.6006009090911</v>
       </c>
       <c r="M16" t="n">
-        <v>103.0434053209184</v>
+        <v>294.855823332652</v>
       </c>
       <c r="N16" t="n">
         <v>289.1858745694543</v>
@@ -35825,7 +35825,7 @@
         <v>203.3989388259856</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.44525887330801</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>274.8826149855452</v>
       </c>
       <c r="K17" t="n">
+        <v>49.93704434844398</v>
+      </c>
+      <c r="L17" t="n">
         <v>392.7599873028944</v>
       </c>
-      <c r="L17" t="n">
-        <v>124.7409688818923</v>
-      </c>
       <c r="M17" t="n">
-        <v>116.6846405355233</v>
+        <v>197.8159407458533</v>
       </c>
       <c r="N17" t="n">
         <v>121.6019881369405</v>
@@ -35901,10 +35901,10 @@
         <v>106.0698346148932</v>
       </c>
       <c r="P17" t="n">
-        <v>67.87597755032493</v>
+        <v>392.7599873028944</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.5548468074873</v>
+        <v>19.34346137803598</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>41.4879962783621</v>
       </c>
       <c r="L18" t="n">
-        <v>86.199520580325</v>
+        <v>392.7599873028944</v>
       </c>
       <c r="M18" t="n">
         <v>392.7599873028944</v>
       </c>
       <c r="N18" t="n">
-        <v>308.3035428974957</v>
+        <v>356.1874425757853</v>
       </c>
       <c r="O18" t="n">
         <v>100.4559423507461</v>
@@ -35983,10 +35983,10 @@
         <v>67.93132275734823</v>
       </c>
       <c r="Q18" t="n">
-        <v>340.3556291630464</v>
+        <v>12.63506029512179</v>
       </c>
       <c r="R18" t="n">
-        <v>26.72379753293433</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.09189531711007</v>
+        <v>274.8826149855452</v>
       </c>
       <c r="K20" t="n">
-        <v>114.8169509559061</v>
+        <v>49.93704434844398</v>
       </c>
       <c r="L20" t="n">
+        <v>86.17974875245062</v>
+      </c>
+      <c r="M20" t="n">
+        <v>116.6846405355233</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.6019881369405</v>
+      </c>
+      <c r="O20" t="n">
+        <v>162.5699879462157</v>
+      </c>
+      <c r="P20" t="n">
         <v>392.7599873028944</v>
       </c>
-      <c r="M20" t="n">
-        <v>392.7599873028944</v>
-      </c>
-      <c r="N20" t="n">
-        <v>392.7599873028944</v>
-      </c>
-      <c r="O20" t="n">
-        <v>106.0698346148932</v>
-      </c>
-      <c r="P20" t="n">
-        <v>67.87597755032493</v>
-      </c>
       <c r="Q20" t="n">
-        <v>19.34346137803598</v>
+        <v>350.5548468074873</v>
       </c>
       <c r="R20" t="n">
-        <v>57.69277709054769</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>190.9531199523485</v>
       </c>
       <c r="K21" t="n">
-        <v>387.8855897254202</v>
+        <v>41.4879962783621</v>
       </c>
       <c r="L21" t="n">
-        <v>392.7599873028944</v>
+        <v>86.199520580325</v>
       </c>
       <c r="M21" t="n">
         <v>113.2998296090971</v>
@@ -36214,10 +36214,10 @@
         <v>125.758760374014</v>
       </c>
       <c r="O21" t="n">
-        <v>100.4559423507461</v>
+        <v>392.7599873028944</v>
       </c>
       <c r="P21" t="n">
-        <v>67.93132275734823</v>
+        <v>237.632218022479</v>
       </c>
       <c r="Q21" t="n">
         <v>340.3556291630464</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.04184349633085</v>
+        <v>18.04184349633083</v>
       </c>
       <c r="K22" t="n">
         <v>161.7315702208592</v>
@@ -36360,25 +36360,25 @@
         <v>274.8826149855452</v>
       </c>
       <c r="K23" t="n">
-        <v>298.8814481006505</v>
+        <v>228.0225516354004</v>
       </c>
       <c r="L23" t="n">
         <v>737.7312434511533</v>
       </c>
       <c r="M23" t="n">
-        <v>797.3466925770306</v>
+        <v>116.6846405355233</v>
       </c>
       <c r="N23" t="n">
-        <v>797.3466925770306</v>
+        <v>121.6019881369405</v>
       </c>
       <c r="O23" t="n">
-        <v>106.0698346148932</v>
+        <v>700.1181173847758</v>
       </c>
       <c r="P23" t="n">
-        <v>67.87597755032493</v>
+        <v>569.8819622978378</v>
       </c>
       <c r="Q23" t="n">
-        <v>19.34346137803598</v>
+        <v>350.5548468074873</v>
       </c>
       <c r="R23" t="n">
         <v>57.69277709054769</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>190.9531199523485</v>
       </c>
       <c r="K24" t="n">
-        <v>41.4879962783621</v>
+        <v>454.0537660179848</v>
       </c>
       <c r="L24" t="n">
         <v>86.199520580325</v>
@@ -36448,19 +36448,19 @@
         <v>113.2998296090971</v>
       </c>
       <c r="N24" t="n">
-        <v>728.2354697068056</v>
+        <v>125.758760374014</v>
       </c>
       <c r="O24" t="n">
-        <v>714.8811604224442</v>
+        <v>359.3946136624057</v>
       </c>
       <c r="P24" t="n">
         <v>564.7332418356502</v>
       </c>
       <c r="Q24" t="n">
-        <v>12.63506029512179</v>
+        <v>340.3556291630464</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.72379753293433</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36530,13 +36530,13 @@
         <v>289.1858745694543</v>
       </c>
       <c r="O25" t="n">
-        <v>295.2130654299276</v>
+        <v>260.5437894493948</v>
       </c>
       <c r="P25" t="n">
         <v>203.3989388259856</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.44525887330801</v>
+        <v>95.11453485384075</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>555.603887959461</v>
       </c>
       <c r="L26" t="n">
-        <v>86.17974875245062</v>
+        <v>737.7312434511533</v>
       </c>
       <c r="M26" t="n">
-        <v>797.3466925770306</v>
+        <v>116.6846405355233</v>
       </c>
       <c r="N26" t="n">
-        <v>797.3466925770306</v>
+        <v>296.0266365603932</v>
       </c>
       <c r="O26" t="n">
-        <v>106.0698346148932</v>
+        <v>700.1181173847758</v>
       </c>
       <c r="P26" t="n">
-        <v>131.4936469607659</v>
+        <v>67.87597755032493</v>
       </c>
       <c r="Q26" t="n">
         <v>350.5548468074873</v>
@@ -36679,22 +36679,22 @@
         <v>454.0537660179848</v>
       </c>
       <c r="L27" t="n">
-        <v>664.7104592537213</v>
+        <v>86.199520580325</v>
       </c>
       <c r="M27" t="n">
-        <v>618.2500501935872</v>
+        <v>113.2998296090971</v>
       </c>
       <c r="N27" t="n">
         <v>125.758760374014</v>
       </c>
       <c r="O27" t="n">
-        <v>100.4559423507461</v>
+        <v>359.3946136624057</v>
       </c>
       <c r="P27" t="n">
-        <v>67.93132275734823</v>
+        <v>564.7332418356502</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.63506029512179</v>
+        <v>340.3556291630464</v>
       </c>
       <c r="R27" t="n">
         <v>26.72379753293433</v>
@@ -36755,10 +36755,10 @@
         <v>81.25097539074969</v>
       </c>
       <c r="K28" t="n">
-        <v>224.940702115278</v>
+        <v>224.9407021152781</v>
       </c>
       <c r="L28" t="n">
-        <v>330.176891941935</v>
+        <v>330.1768919419351</v>
       </c>
       <c r="M28" t="n">
         <v>358.0649552270709</v>
@@ -36837,25 +36837,25 @@
         <v>555.603887959461</v>
       </c>
       <c r="L29" t="n">
-        <v>86.17974875245062</v>
+        <v>737.7312434511532</v>
       </c>
       <c r="M29" t="n">
-        <v>797.3466925770306</v>
+        <v>116.6846405355233</v>
       </c>
       <c r="N29" t="n">
-        <v>797.3466925770306</v>
+        <v>121.6019881369405</v>
       </c>
       <c r="O29" t="n">
-        <v>106.0698346148932</v>
+        <v>372.5367810607156</v>
       </c>
       <c r="P29" t="n">
-        <v>189.1864240513135</v>
+        <v>569.8819622978378</v>
       </c>
       <c r="Q29" t="n">
         <v>350.5548468074873</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>57.69277709054768</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>41.4879962783621</v>
+        <v>41.48799627836208</v>
       </c>
       <c r="L30" t="n">
-        <v>664.7104592537213</v>
+        <v>86.19952058032497</v>
       </c>
       <c r="M30" t="n">
-        <v>634.0675193467948</v>
+        <v>186.5461594163155</v>
       </c>
       <c r="N30" t="n">
-        <v>125.758760374014</v>
+        <v>797.3466925770305</v>
       </c>
       <c r="O30" t="n">
-        <v>714.8811604224442</v>
+        <v>714.8811604224441</v>
       </c>
       <c r="P30" t="n">
-        <v>67.93132275734823</v>
+        <v>67.9313227573482</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.63506029512179</v>
+        <v>340.3556291630464</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.72379753293433</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.25097539074966</v>
+        <v>81.25097539074964</v>
       </c>
       <c r="K31" t="n">
         <v>224.940702115278</v>
@@ -37074,19 +37074,19 @@
         <v>555.603887959461</v>
       </c>
       <c r="L32" t="n">
-        <v>86.17974875245062</v>
+        <v>410.1499071270929</v>
       </c>
       <c r="M32" t="n">
-        <v>797.3466925770306</v>
+        <v>116.6846405355233</v>
       </c>
       <c r="N32" t="n">
-        <v>797.3466925770306</v>
+        <v>121.6019881369405</v>
       </c>
       <c r="O32" t="n">
-        <v>106.0698346148932</v>
+        <v>700.1181173847758</v>
       </c>
       <c r="P32" t="n">
-        <v>131.4936469607659</v>
+        <v>569.8819622978378</v>
       </c>
       <c r="Q32" t="n">
         <v>350.5548468074873</v>
@@ -37153,22 +37153,22 @@
         <v>41.4879962783621</v>
       </c>
       <c r="L33" t="n">
-        <v>664.7104592537213</v>
+        <v>86.199520580325</v>
       </c>
       <c r="M33" t="n">
-        <v>634.0675193467948</v>
+        <v>797.3466925770305</v>
       </c>
       <c r="N33" t="n">
-        <v>125.758760374014</v>
+        <v>797.3466925770305</v>
       </c>
       <c r="O33" t="n">
-        <v>714.8811604224442</v>
+        <v>100.4559423507461</v>
       </c>
       <c r="P33" t="n">
-        <v>67.93132275734823</v>
+        <v>98.27980520126563</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.63506029512179</v>
+        <v>340.3556291630464</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.50315492518155</v>
+        <v>96.50315492518158</v>
       </c>
       <c r="K34" t="n">
-        <v>161.7315702208592</v>
+        <v>240.19288164971</v>
       </c>
       <c r="L34" t="n">
-        <v>266.9677600475162</v>
+        <v>345.429071476367</v>
       </c>
       <c r="M34" t="n">
-        <v>316.1551752483742</v>
+        <v>294.855823332652</v>
       </c>
       <c r="N34" t="n">
-        <v>367.647185998305</v>
+        <v>289.1858745694543</v>
       </c>
       <c r="O34" t="n">
-        <v>339.0051008782456</v>
+        <v>281.8431413651159</v>
       </c>
       <c r="P34" t="n">
         <v>203.3989388259856</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.09189531711007</v>
+        <v>274.8826149855452</v>
       </c>
       <c r="K35" t="n">
-        <v>49.93704434844398</v>
+        <v>457.5856131549992</v>
       </c>
       <c r="L35" t="n">
-        <v>457.5856131549994</v>
+        <v>258.9058521415133</v>
       </c>
       <c r="M35" t="n">
-        <v>457.5856131549994</v>
+        <v>116.6846405355233</v>
       </c>
       <c r="N35" t="n">
-        <v>233.1561498683146</v>
+        <v>121.6019881369405</v>
       </c>
       <c r="O35" t="n">
-        <v>457.5856131549994</v>
+        <v>106.0698346148932</v>
       </c>
       <c r="P35" t="n">
         <v>67.87597755032493</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.34346137803598</v>
+        <v>350.5548468074873</v>
       </c>
       <c r="R35" t="n">
         <v>57.69277709054769</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>162.8573851699977</v>
+        <v>190.9531199523485</v>
       </c>
       <c r="K36" t="n">
-        <v>41.4879962783621</v>
+        <v>454.0537660179848</v>
       </c>
       <c r="L36" t="n">
         <v>86.199520580325</v>
@@ -37399,10 +37399,10 @@
         <v>125.758760374014</v>
       </c>
       <c r="O36" t="n">
-        <v>457.5856131549994</v>
+        <v>100.4559423507461</v>
       </c>
       <c r="P36" t="n">
-        <v>457.5856131549994</v>
+        <v>374.0537794372783</v>
       </c>
       <c r="Q36" t="n">
         <v>340.3556291630464</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>96.50315492518155</v>
+        <v>18.04184349633083</v>
       </c>
       <c r="K37" t="n">
         <v>161.7315702208592</v>
       </c>
       <c r="L37" t="n">
-        <v>266.9677600475162</v>
+        <v>345.429071476367</v>
       </c>
       <c r="M37" t="n">
-        <v>316.1551752483745</v>
+        <v>373.3171347615028</v>
       </c>
       <c r="N37" t="n">
         <v>367.647185998305</v>
@@ -37484,7 +37484,7 @@
         <v>203.3989388259856</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.9065703021587</v>
+        <v>81.74461078902947</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.09189531711007</v>
+        <v>274.8826149855452</v>
       </c>
       <c r="K38" t="n">
-        <v>49.93704434844398</v>
+        <v>457.5856131549992</v>
       </c>
       <c r="L38" t="n">
-        <v>86.17974875245062</v>
+        <v>457.5856131549992</v>
       </c>
       <c r="M38" t="n">
-        <v>219.6246182547962</v>
+        <v>249.2162649514886</v>
       </c>
       <c r="N38" t="n">
         <v>121.6019881369405</v>
       </c>
       <c r="O38" t="n">
-        <v>457.5856131549993</v>
+        <v>106.0698346148932</v>
       </c>
       <c r="P38" t="n">
-        <v>457.5856131549993</v>
+        <v>67.87597755032493</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.5548468074873</v>
+        <v>19.34346137803598</v>
       </c>
       <c r="R38" t="n">
         <v>57.69277709054769</v>
@@ -37636,16 +37636,16 @@
         <v>125.758760374014</v>
       </c>
       <c r="O39" t="n">
-        <v>371.3684750338844</v>
+        <v>100.4559423507461</v>
       </c>
       <c r="P39" t="n">
-        <v>457.5856131549993</v>
+        <v>374.0537794372783</v>
       </c>
       <c r="Q39" t="n">
-        <v>12.63506029512179</v>
+        <v>340.3556291630464</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>26.72379753293433</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>96.50315492518155</v>
+        <v>96.50315492518158</v>
       </c>
       <c r="K40" t="n">
-        <v>240.1928816497099</v>
+        <v>183.0309221365805</v>
       </c>
       <c r="L40" t="n">
-        <v>345.4290714763669</v>
+        <v>345.429071476367</v>
       </c>
       <c r="M40" t="n">
-        <v>294.855823332652</v>
+        <v>373.3171347615028</v>
       </c>
       <c r="N40" t="n">
         <v>289.1858745694543</v>
@@ -37721,7 +37721,7 @@
         <v>203.3989388259856</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.74461078902993</v>
+        <v>60.44525887330801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>74.51624379729076</v>
+        <v>274.8826149855452</v>
       </c>
       <c r="K41" t="n">
         <v>49.93704434844398</v>
@@ -37788,13 +37788,13 @@
         <v>86.17974875245062</v>
       </c>
       <c r="M41" t="n">
-        <v>404.5867052741361</v>
+        <v>116.6846405355233</v>
       </c>
       <c r="N41" t="n">
-        <v>404.5867052741361</v>
+        <v>251.2983052557985</v>
       </c>
       <c r="O41" t="n">
-        <v>106.0698346148932</v>
+        <v>404.5867052741359</v>
       </c>
       <c r="P41" t="n">
         <v>67.87597755032493</v>
@@ -37803,7 +37803,7 @@
         <v>350.5548468074873</v>
       </c>
       <c r="R41" t="n">
-        <v>57.69277709054769</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>190.9531199523485</v>
       </c>
       <c r="K42" t="n">
-        <v>41.4879962783621</v>
+        <v>404.5867052741359</v>
       </c>
       <c r="L42" t="n">
         <v>86.199520580325</v>
       </c>
       <c r="M42" t="n">
-        <v>404.5867052741361</v>
+        <v>113.2998296090971</v>
       </c>
       <c r="N42" t="n">
-        <v>404.5867052741361</v>
+        <v>125.758760374014</v>
       </c>
       <c r="O42" t="n">
-        <v>366.8956555649983</v>
+        <v>100.4559423507461</v>
       </c>
       <c r="P42" t="n">
-        <v>67.93132275734823</v>
+        <v>213.6665786730623</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.63506029512179</v>
+        <v>340.3556291630464</v>
       </c>
       <c r="R42" t="n">
         <v>26.72379753293433</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>62.71363009169318</v>
+        <v>62.71363009169321</v>
       </c>
       <c r="K43" t="n">
         <v>161.7315702208592</v>
@@ -37946,13 +37946,13 @@
         <v>266.9677600475162</v>
       </c>
       <c r="M43" t="n">
-        <v>297.0130614314992</v>
+        <v>294.855823332652</v>
       </c>
       <c r="N43" t="n">
         <v>289.1858745694543</v>
       </c>
       <c r="O43" t="n">
-        <v>260.5437894493948</v>
+        <v>262.7010275482411</v>
       </c>
       <c r="P43" t="n">
         <v>203.3989388259856</v>
@@ -38019,7 +38019,7 @@
         <v>274.8826149855452</v>
       </c>
       <c r="K44" t="n">
-        <v>49.93704434844398</v>
+        <v>141.4395044027336</v>
       </c>
       <c r="L44" t="n">
         <v>86.17974875245062</v>
@@ -38031,16 +38031,16 @@
         <v>121.6019881369405</v>
       </c>
       <c r="O44" t="n">
-        <v>139.8795175786358</v>
+        <v>106.0698346148932</v>
       </c>
       <c r="P44" t="n">
-        <v>404.5867052741361</v>
+        <v>404.5867052741359</v>
       </c>
       <c r="Q44" t="n">
         <v>350.5548468074873</v>
       </c>
       <c r="R44" t="n">
-        <v>57.69277709054769</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>190.9531199523485</v>
       </c>
       <c r="K45" t="n">
-        <v>41.4879962783621</v>
+        <v>246.1911982664599</v>
       </c>
       <c r="L45" t="n">
         <v>86.199520580325</v>
       </c>
       <c r="M45" t="n">
-        <v>404.5867052741361</v>
+        <v>113.2998296090971</v>
       </c>
       <c r="N45" t="n">
-        <v>404.5867052741361</v>
+        <v>125.758760374014</v>
       </c>
       <c r="O45" t="n">
-        <v>221.1933930005588</v>
+        <v>404.5867052741359</v>
       </c>
       <c r="P45" t="n">
-        <v>404.5867052741361</v>
+        <v>67.93132275734823</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.63506029512179</v>
+        <v>340.3556291630464</v>
       </c>
       <c r="R45" t="n">
         <v>26.72379753293433</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>62.71363009169318</v>
+        <v>18.04184349633083</v>
       </c>
       <c r="K46" t="n">
-        <v>161.7315702208592</v>
+        <v>206.4033568162216</v>
       </c>
       <c r="L46" t="n">
         <v>266.9677600475162</v>
@@ -38186,7 +38186,7 @@
         <v>294.855823332652</v>
       </c>
       <c r="N46" t="n">
-        <v>289.1858745694543</v>
+        <v>291.3431126683006</v>
       </c>
       <c r="O46" t="n">
         <v>260.5437894493948</v>
@@ -38195,7 +38195,7 @@
         <v>203.3989388259856</v>
       </c>
       <c r="Q46" t="n">
-        <v>62.60249697215519</v>
+        <v>60.44525887330801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
